--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC878E8-E2E4-417F-8899-B0D37905EF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975E821-A43B-48F3-9A2E-630D2774EF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3345" windowWidth="17355" windowHeight="15435" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3345" windowWidth="17355" windowHeight="15435" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -54,35 +54,17 @@
     <definedName name="_xlchart.v1.33" hidden="1">'consistency-1MB'!$R$2:$R$436</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">'consistency-1MB'!$S$1</definedName>
     <definedName name="_xlchart.v1.35" hidden="1">'consistency-1MB'!$S$2:$S$436</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'consistency-1MB'!$K$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'consistency-1MB'!$K$2:$K$436</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'consistency-1MB'!$L$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'consistency-1MB'!$L$2:$L$436</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'consistency-500kb'!$K$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'consistency-500kb'!$K$2:$K$2188</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'consistency-500kb'!$L$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'consistency-500kb'!$L$2:$L$2188</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'consistency-1MB'!$M$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'consistency-1MB'!$M$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'consistency-1MB'!$M$2:$M$436</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'consistency-1MB'!$N$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'consistency-1MB'!$N$2:$N$436</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'consistency-1MB'!$O$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'consistency-1MB'!$O$2:$O$436</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'consistency-1MB'!$P$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'consistency-1MB'!$P$2:$P$436</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'consistency-1MB'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'consistency-1MB'!$Q$2:$Q$436</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'consistency-500kb'!$M$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'consistency-500kb'!$M$2:$M$2188</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'consistency-500kb'!$N$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'consistency-500kb'!$N$2:$N$2188</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'consistency-1MB'!$M$2:$M$436</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'consistency-1MB'!$R$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'consistency-1MB'!$R$2:$R$436</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'consistency-1MB'!$S$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'consistency-1MB'!$S$2:$S$436</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'consistency-500kb'!$K$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'consistency-500kb'!$K$2:$K$2188</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'consistency-500kb'!$L$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'consistency-500kb'!$L$2:$L$2188</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'consistency-500kb'!$M$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'consistency-500kb'!$M$2:$M$2188</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'consistency-1MB'!$N$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'consistency-500kb'!$N$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'consistency-500kb'!$N$2:$N$2188</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'consistency-1MB'!$N$2:$N$436</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'consistency-1MB'!$O$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'consistency-1MB'!$O$2:$O$436</definedName>
@@ -1781,6 +1763,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -2641,6 +2629,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -3050,6 +3044,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -3477,6 +3477,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -3904,6 +3910,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -4313,6 +4325,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -4730,6 +4748,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5147,6 +5171,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6058,6 +6088,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6446,6 +6482,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6833,6 +6875,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7220,6 +7268,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -13285,47 +13339,47 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13363,7 +13417,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E74A45CE-B0CE-4284-AD37-4930D0C01BCC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>chr1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13376,7 +13430,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4609CE68-5C56-4848-9F7F-D5A847B5B531}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>chr2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13389,7 +13443,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B572AA01-5165-4463-9556-6071969C41E6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>chr5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13402,7 +13456,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0C22D4F5-4BCE-466F-A466-25E8A48B3543}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>chr10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13415,7 +13469,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8CB4A5A0-6872-4707-A7D7-7DC65CC83719}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>chr15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13428,7 +13482,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B7B94A64-8346-49DD-9086-43559FCFD78D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>chr19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13441,7 +13495,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D3994CC7-33C9-4B5A-B63C-1071FA6518E9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>chr20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13454,7 +13508,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BBDBC415-1A60-4213-BA90-2D8510942363}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>chr21</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13467,7 +13521,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{380E1564-8E15-44AC-BDEF-5F3A534B83E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>chr22</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13546,22 +13600,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13599,7 +13653,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FC0FDC28-34D3-4A75-A532-D3429BECE732}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>chr1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13612,7 +13666,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FDF954FF-C90D-448A-BAC7-9EB7101C5083}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>chr10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13625,7 +13679,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{37A695BD-6086-4712-9A72-01FE7C456FFF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>chr19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13638,7 +13692,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{588D971C-E56B-4A45-8E9E-CFAF2A37CD1E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>chr22</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15627,16 +15681,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15672,7 +15726,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4343400" y="2205037"/>
+              <a:off x="9753600" y="2947987"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -16677,8 +16731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16897,8 +16951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C79" sqref="C76:C79"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17546,8 +17600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30437,8 +30491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q2188"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -44356,7 +44410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975E821-A43B-48F3-9A2E-630D2774EF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F93DC-A968-4A9C-B645-29BD4F250E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3345" windowWidth="17355" windowHeight="15435" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>alpha</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>spearman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1 </t>
   </si>
   <si>
     <t>This is the key chart</t>
@@ -338,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,6 +371,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -389,7 +395,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -427,6 +433,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4391,6 +4405,639 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SCC at Different Local</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Confidences vs Global Confidence</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5435310430800803E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101530293795098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105514742244953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3353-433E-92B9-8B98FE1A49EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1732378554561405E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.128296807618589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37213812496097398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3353-433E-92B9-8B98FE1A49EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99377130598532104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99672801553520796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99620063830389705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3353-433E-92B9-8B98FE1A49EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1143806703"/>
+        <c:axId val="1143802543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1143806703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Global Confidence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143802543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1143802543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SCC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143806703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -4742,429 +5389,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="514562352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9528" cap="flat">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>PCC Average Between 30 Structures per Chromosome</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472C4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'consistency-1MB'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>chr1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>chr2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>chr5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>chr10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>chr15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>chr19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>chr20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>chr21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>chr22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'consistency-1MB'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.99489709744798105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99962796415937605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99977975691179399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99742718617565596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98940425891647599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99960656313853502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.987824364481382</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99541762961091995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99906937831635301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89E6-469B-B00C-B062BCA1F243}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="514559440"/>
-        <c:axId val="514540304"/>
-      </c:barChart>
-      <c:valAx>
-        <c:axId val="514540304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514559440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="514559440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Axis Title</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514540304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5766,6 +5990,429 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
+              <a:t>PCC Average Between 30 Structures per Chromosome</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'consistency-1MB'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>chr1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>chr2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chr5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>chr10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>chr15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>chr19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>chr20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chr21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>chr22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'consistency-1MB'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99489709744798105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99962796415937605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99977975691179399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99742718617565596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98940425891647599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99960656313853502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.987824364481382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99541762961091995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99906937831635301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89E6-469B-B00C-B062BCA1F243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="514559440"/>
+        <c:axId val="514540304"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="514540304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514559440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="514559440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514540304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
               <a:t>TM-Score Average Between 30 Structure per Chromosome</a:t>
             </a:r>
           </a:p>
@@ -6150,7 +6797,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6544,7 +7191,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6937,7 +7584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7330,7 +7977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8580,7 +9227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13826,7 +14473,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14341,7 +15531,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15376,10 +16566,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161921</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133346</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6121816" cy="3443081"/>
     <xdr:graphicFrame macro="">
@@ -15405,6 +16595,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2260126E-C95B-43B3-A23D-AFF637E86EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16949,10 +18175,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16961,7 +18187,7 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -16990,7 +18216,7 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -17001,8 +18227,17 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="T1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U1">
+        <v>2.5</v>
+      </c>
+      <c r="V1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -17031,20 +18266,35 @@
         <v>0.99837607469027201</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="M2" s="5">
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.3145397809773702E-2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6.6322647822716504E-2</v>
+      </c>
+      <c r="S2" s="5">
         <v>0.5</v>
       </c>
-      <c r="N2" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.99689891449684798</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.99672801553520796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="T2" s="5">
+        <f>P3</f>
+        <v>7.5435310430800803E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f>P4</f>
+        <v>0.101530293795098</v>
+      </c>
+      <c r="V2" s="5">
+        <f>P5</f>
+        <v>0.105514742244953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="7">
         <v>0.3</v>
       </c>
@@ -17076,19 +18326,34 @@
       </c>
       <c r="K3" s="8"/>
       <c r="M3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
-        <v>2.5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0.99659953493572395</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0.99620063830389705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>9.5653206420151904E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>7.5435310430800803E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.7</v>
+      </c>
+      <c r="T3" s="5">
+        <f>P6</f>
+        <v>8.1732378554561405E-2</v>
+      </c>
+      <c r="U3" s="5">
+        <f>P7</f>
+        <v>0.128296807618589</v>
+      </c>
+      <c r="V3" s="5">
+        <f>P8</f>
+        <v>0.37213812496097398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -17116,20 +18381,35 @@
       <c r="J4" s="5">
         <v>0.99837607469027201</v>
       </c>
-      <c r="M4" s="5">
-        <v>0.5</v>
+      <c r="M4">
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>2.8</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2.5800494948756799E-2</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.7421163822083498E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.124147814037815</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.101530293795098</v>
+      </c>
+      <c r="S4">
+        <v>0.9</v>
+      </c>
+      <c r="T4" s="5">
+        <f>P9</f>
+        <v>0.99377130598532104</v>
+      </c>
+      <c r="U4" s="5">
+        <f>P19</f>
+        <v>0.99672801553520796</v>
+      </c>
+      <c r="V4" s="5">
+        <f>P20</f>
+        <v>0.99620063830389705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -17152,19 +18432,19 @@
         <v>2.5</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.99844535101737397</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.99846462103771205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.12666432036703101</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.105514742244953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>1.2</v>
       </c>
@@ -17187,19 +18467,19 @@
         <v>2.5</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1.6894316798075602E-2</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1.26692786830521E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1.3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.10290602252389799</v>
+      </c>
+      <c r="P6" s="1">
+        <v>8.1732378554561405E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -17222,19 +18502,19 @@
         <v>2.5</v>
       </c>
       <c r="M7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
-      </c>
-      <c r="O7" s="5">
-        <v>4.8827333114792197E-2</v>
-      </c>
-      <c r="P7" s="5">
-        <v>3.7434444673984997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>1.6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.17208333762880801</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.128296807618589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>1.9</v>
       </c>
@@ -17257,19 +18537,19 @@
         <v>2.5</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0.99879633533495804</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0.99868591146533103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>1.9</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.45620814069263199</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.37213812496097398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -17292,19 +18572,19 @@
         <v>2.8</v>
       </c>
       <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2.2597942669239202E-2</v>
-      </c>
-      <c r="P9" s="5">
-        <v>2.0561717472259499E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.99429792923667704</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.99377130598532104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>0.3</v>
       </c>
@@ -17336,19 +18616,19 @@
       </c>
       <c r="K10" s="8"/>
       <c r="M10">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
-      </c>
-      <c r="O10" s="5">
-        <v>2.4694577912838599E-2</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2.48559342758627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>2.5</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.99820301162700098</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.99814338881887299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -17371,8 +18651,20 @@
         <v>2.8</v>
       </c>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="N11">
+        <v>2.8</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.99298009111866203</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0.99216247324951001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>0.3</v>
       </c>
@@ -17394,8 +18686,16 @@
       <c r="H12" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="M12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -17417,8 +18717,14 @@
       <c r="H13" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="M13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -17440,8 +18746,14 @@
       <c r="H14" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="M14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>0.3</v>
       </c>
@@ -17463,8 +18775,14 @@
       <c r="H15" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="M15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>0.3</v>
       </c>
@@ -17480,8 +18798,14 @@
       <c r="E16" s="1">
         <v>26.636332184034099</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="M16" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>0.3</v>
       </c>
@@ -17497,8 +18821,14 @@
       <c r="E17" s="1">
         <v>25.458332387009602</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="M17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>0.3</v>
       </c>
@@ -17514,15 +18844,270 @@
       <c r="E18" s="1">
         <v>26.038569260682301</v>
       </c>
+      <c r="M18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="M19" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0.99689891449684798</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0.99672801553520796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.99659953493572395</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.99620063830389705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="M21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>2.8</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2.5800494948756799E-2</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1.7421163822083498E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="M22" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="M23">
+        <v>0.7</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="M24">
+        <v>0.7</v>
+      </c>
+      <c r="N24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="M25">
+        <v>0.7</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="M26">
+        <v>0.7</v>
+      </c>
+      <c r="N26">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="M27">
+        <v>0.7</v>
+      </c>
+      <c r="N27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="M28">
+        <v>0.7</v>
+      </c>
+      <c r="N28">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="M29">
+        <v>0.7</v>
+      </c>
+      <c r="N29" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.99844535101737397</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.99846462103771205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="M30">
+        <v>0.7</v>
+      </c>
+      <c r="N30">
+        <v>2.5</v>
+      </c>
+      <c r="O30" s="5">
+        <v>1.6894316798075602E-2</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1.26692786830521E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="M31">
+        <v>0.7</v>
+      </c>
+      <c r="N31">
+        <v>2.8</v>
+      </c>
+      <c r="O31" s="5">
+        <v>4.8827333114792197E-2</v>
+      </c>
+      <c r="P31" s="5">
+        <v>3.7434444673984997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="M32" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="13:22">
+      <c r="M33" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="13:22">
+      <c r="M34" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="13:22">
+      <c r="M35" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="13:22">
+      <c r="M36" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N36">
+        <v>1.3</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="13:22">
+      <c r="M37" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N37">
+        <v>1.6</v>
+      </c>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="13:22">
+      <c r="M38" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N38">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="39" spans="13:22">
+      <c r="M39">
+        <v>0.9</v>
+      </c>
+      <c r="N39" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.99879633533495804</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.99868591146533103</v>
+      </c>
+    </row>
+    <row r="40" spans="13:22">
+      <c r="M40">
+        <v>0.9</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40" s="5">
+        <v>2.2597942669239202E-2</v>
+      </c>
+      <c r="P40" s="5">
+        <v>2.0561717472259499E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="13:22">
+      <c r="M41">
+        <v>0.9</v>
+      </c>
+      <c r="N41">
+        <v>2.8</v>
+      </c>
+      <c r="O41" s="5">
+        <v>2.4694577912838599E-2</v>
+      </c>
+      <c r="P41" s="5">
+        <v>2.48559342758627E-2</v>
+      </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17571,7 +19156,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17600,7 +19185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V436"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -17612,49 +19197,49 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
       <c r="U1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V1">
         <f>AVERAGE(K:K)</f>
@@ -17663,7 +19248,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5">
         <v>0.99644676813178201</v>
@@ -17706,7 +19291,7 @@
         <v>0.49320000000000003</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V2">
         <f>AVERAGE(L:L)</f>
@@ -17715,7 +19300,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>0.99959621907645901</v>
@@ -17758,7 +19343,7 @@
         <v>0.51629999999999998</v>
       </c>
       <c r="U3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V3">
         <f>AVERAGE(M:M)</f>
@@ -17767,7 +19352,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
         <v>0.99980094939376396</v>
@@ -17810,7 +19395,7 @@
         <v>0.98899999999999999</v>
       </c>
       <c r="U4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V4">
         <f>AVERAGE(N:N)</f>
@@ -17819,7 +19404,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>0.99776364471115497</v>
@@ -17862,7 +19447,7 @@
         <v>0.46729999999999999</v>
       </c>
       <c r="U5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V5">
         <f>AVERAGE(O:O)</f>
@@ -17871,7 +19456,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5">
         <v>0.98631225686810897</v>
@@ -17914,7 +19499,7 @@
         <v>0.43759999999999999</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V6">
         <f>AVERAGE(P:P)</f>
@@ -17923,7 +19508,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5">
         <v>0.99942239711541803</v>
@@ -17966,7 +19551,7 @@
         <v>0.47449999999999998</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V7">
         <f>AVERAGE(Q:Q)</f>
@@ -17975,7 +19560,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>0.98483444286444999</v>
@@ -18018,7 +19603,7 @@
         <v>0.44469999999999998</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8">
         <f>AVERAGE(R:R)</f>
@@ -18027,7 +19612,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>0.99254602929234803</v>
@@ -18070,7 +19655,7 @@
         <v>0.35360000000000003</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V9">
         <f>AVERAGE(S:S)</f>
@@ -18079,7 +19664,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>0.99907223486808305</v>
@@ -30491,7 +32076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q2188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -30502,34 +32087,34 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q1">
         <f>AVERAGE(K:K)</f>
@@ -30538,7 +32123,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5">
         <v>0.99207141080852101</v>
@@ -30566,7 +32151,7 @@
         <v>0.6956</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <f>AVERAGE(L:L)</f>
@@ -30575,7 +32160,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
         <v>0.99473251008163299</v>
@@ -30603,7 +32188,7 @@
         <v>0.28749999999999998</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3">
         <f>AVERAGE(M:M)</f>
@@ -30612,7 +32197,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>0.99624330283762597</v>
@@ -30640,7 +32225,7 @@
         <v>0.4017</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <f>AVERAGE(N:N)</f>
@@ -30649,7 +32234,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5">
         <v>0.999967936595893</v>
@@ -35642,17 +37227,17 @@
     </row>
     <row r="437" spans="12:14">
       <c r="M437" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="438" spans="12:14">
       <c r="M438" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="439" spans="12:14">
       <c r="M439" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="440" spans="12:14">
@@ -37832,17 +39417,17 @@
     </row>
     <row r="875" spans="13:13">
       <c r="M875" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="876" spans="13:13">
       <c r="M876" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="877" spans="13:13">
       <c r="M877" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="878" spans="13:13">
@@ -40022,17 +41607,17 @@
     </row>
     <row r="1313" spans="13:13">
       <c r="M1313" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1314" spans="13:13">
       <c r="M1314" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1315" spans="13:13">
       <c r="M1315" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1316" spans="13:13">
@@ -42212,17 +43797,17 @@
     </row>
     <row r="1751" spans="13:13">
       <c r="M1751" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1752" spans="13:13">
       <c r="M1752" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1753" spans="13:13">
       <c r="M1753" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1754" spans="13:13">
@@ -44419,31 +46004,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -45133,31 +46718,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F93DC-A968-4A9C-B645-29BD4F250E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18504A8A-1BEE-4B2B-95DD-73CB049654F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>alpha</t>
   </si>
@@ -221,6 +221,18 @@
   <si>
     <t xml:space="preserve">ParticleChromo3D </t>
   </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,6 +392,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -395,7 +418,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,6 +464,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4344,6 +4371,20 @@
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
       </c:dTable>
       <c:spPr>
         <a:noFill/>
@@ -4435,13 +4476,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SCC at Different Local</a:t>
+              <a:t>SCC at Different Local Confidences</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Confidences vs Global Confidence</a:t>
+              <a:t> vs Global Confidence</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4490,7 +4534,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4507,17 +4551,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:f>Coeffecient_test!$T$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4525,25 +4590,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$2:$V$2</c:f>
+              <c:f>Coeffecient_test!$T$2:$AC$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>6.6322647822716504E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7.5435310430800803E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.101530293795098</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.105514742244953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1732378554561405E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.128296807618589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37213812496097398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99377130598532104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99814338881887299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99216247324951001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3353-433E-92B9-8B98FE1A49EE}"/>
+              <c16:uniqueId val="{00000000-0CF4-4932-9CF9-F8BA9D6A8ED7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4556,7 +4642,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4573,17 +4659,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:f>Coeffecient_test!$T$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4591,25 +4698,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$3:$V$3</c:f>
+              <c:f>Coeffecient_test!$T$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.1732378554561405E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.128296807618589</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37213812496097398</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>7.5435310430800803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.101530293795098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.105514742244953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3353-433E-92B9-8B98FE1A49EE}"/>
+              <c16:uniqueId val="{00000001-0CF4-4932-9CF9-F8BA9D6A8ED7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4622,7 +4729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4639,17 +4746,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$1:$V$1</c:f>
+              <c:f>Coeffecient_test!$T$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -4657,30 +4785,116 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$4:$V$4</c:f>
+              <c:f>Coeffecient_test!$T$4:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.99377130598532104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99672801553520796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99620063830389705</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>8.1732378554561405E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128296807618589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37213812496097398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3353-433E-92B9-8B98FE1A49EE}"/>
+              <c16:uniqueId val="{00000002-0CF4-4932-9CF9-F8BA9D6A8ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coeffecient_test!$T$5:$AC$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="7">
+                  <c:v>0.99377130598532104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99672801553520796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99620063830389705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0CF4-4932-9CF9-F8BA9D6A8ED7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4690,11 +4904,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1143806703"/>
-        <c:axId val="1143802543"/>
+        <c:axId val="1202630415"/>
+        <c:axId val="1202637903"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1143806703"/>
+        <c:axId val="1202630415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4721,8 +4935,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Global Confidence</a:t>
+                  <a:t>Global</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Confidence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4792,7 +5011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143802543"/>
+        <c:crossAx val="1202637903"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +5019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1143802543"/>
+        <c:axId val="1202637903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4876,7 +5095,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4907,7 +5126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1143806703"/>
+        <c:crossAx val="1202630415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5038,42 +5257,52 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>SCC Average Between 30 Structures per Chromosome </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>SCC</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Global Confidence</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>at Local Confidence 0.3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5083,7 +5312,28 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5095,93 +5345,123 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spearman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472C4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'consistency-1MB'!$A$2:$A$10</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Coeffecient_test!$N$1:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Coeffecient_test!$N$2:$N$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>chr1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>chr2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>chr5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>chr10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>chr15</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>chr19</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>chr20</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>chr21</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>chr22</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'consistency-1MB'!$B$2:$B$10</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Coeffecient_test!$P$2:$P$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Coeffecient_test!$P$3:$P$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99644676813178201</c:v>
+                  <c:v>7.5435310430800803E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99959621907645901</c:v>
+                  <c:v>0.101530293795098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99980094939376396</c:v>
+                  <c:v>0.105514742244953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99776364471115497</c:v>
+                  <c:v>8.1732378554561405E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98631225686810897</c:v>
+                  <c:v>0.128296807618589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99942239711541803</c:v>
+                  <c:v>0.37213812496097398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98483444286444999</c:v>
+                  <c:v>0.99377130598532104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99254602929234803</c:v>
+                  <c:v>0.99814338881887299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99907223486808305</c:v>
+                  <c:v>0.99216247324951001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-146B-4153-9D9D-4FB80D337464}"/>
+              <c16:uniqueId val="{00000000-460D-42C7-A7C1-3657A37482EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5191,11 +5471,117 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="514553200"/>
-        <c:axId val="514562352"/>
+        <c:axId val="1161682559"/>
+        <c:axId val="1161687551"/>
       </c:barChart>
+      <c:catAx>
+        <c:axId val="1161682559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Global Confidence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161687551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="514562352"/>
+        <c:axId val="1161687551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5204,47 +5590,39 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9528" cap="flat">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
+                <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>SCC</a:t>
                 </a:r>
               </a:p>
@@ -5256,9 +5634,30 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5267,184 +5666,111 @@
           <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514553200"/>
+        <c:crossAx val="1161682559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="514553200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Chromosome</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9528" cap="flat">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
+            <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514562352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
       </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9528" cap="flat">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-        </a:defRPr>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5956,6 +6282,960 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PCC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Global Confidence</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>at Local Confidence 0.3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coeffecient_test!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pearson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Coeffecient_test!$N$1:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Coeffecient_test!$N$2:$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Coeffecient_test!$O$2:$O$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Coeffecient_test!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.5653206420151904E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124147814037815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12666432036703101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10290602252389799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17208333762880801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45620814069263199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99429792923667704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99820301162700098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99298009111866203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB79-4376-B0A2-2489FCBDF3C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1161682559"/>
+        <c:axId val="1161687551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1161682559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Global Confidence</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161687551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1161687551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PCC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161682559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>SCC Average Between 30 Structures per Chromosome </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'consistency-1MB'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>chr1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>chr2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>chr5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>chr10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>chr15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>chr19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>chr20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>chr21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>chr22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'consistency-1MB'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99644676813178201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99959621907645901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99980094939376396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99776364471115497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98631225686810897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99942239711541803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98483444286444999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99254602929234803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99907223486808305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-146B-4153-9D9D-4FB80D337464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="514553200"/>
+        <c:axId val="514562352"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="514562352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>SCC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514553200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="514553200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Chromosome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514562352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -6374,7 +7654,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6797,7 +8077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7191,7 +8471,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7584,7 +8864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7977,7 +9257,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9227,7 +10507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14513,6 +15793,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15017,6 +16377,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15531,7 +17897,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16566,10 +18932,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133346</xdr:rowOff>
+      <xdr:rowOff>76196</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6121816" cy="3443081"/>
     <xdr:graphicFrame macro="">
@@ -16597,23 +18963,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>633411</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2260126E-C95B-43B3-A23D-AFF637E86EE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E723C4D-CE99-453D-96EC-5D206DAA2891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16626,6 +18992,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DD4FFE-8548-4B6E-B07D-5B078056C58B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCF2759-42D4-49CC-B3A6-55AF908CC5A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18175,10 +20615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18187,7 +20627,7 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -18216,28 +20656,49 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="T1">
+        <v>0.1</v>
+      </c>
+      <c r="U1">
+        <v>0.4</v>
+      </c>
+      <c r="V1">
+        <v>0.7</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1.3</v>
+      </c>
+      <c r="Y1">
+        <v>1.6</v>
+      </c>
+      <c r="Z1">
+        <v>1.9</v>
+      </c>
+      <c r="AA1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U1">
+      <c r="AB1">
         <v>2.5</v>
       </c>
-      <c r="V1">
+      <c r="AC1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -18266,35 +20727,63 @@
         <v>0.99837607469027201</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="M2">
+      <c r="M2" s="23">
         <v>0.3</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="23">
         <v>0.1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="26">
         <v>8.3145397809773702E-2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="26">
         <v>6.6322647822716504E-2</v>
       </c>
-      <c r="S2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="5">
+      <c r="S2">
+        <v>0.3</v>
+      </c>
+      <c r="T2" s="6">
+        <f>P2</f>
+        <v>6.6322647822716504E-2</v>
+      </c>
+      <c r="U2" s="6">
         <f>P3</f>
         <v>7.5435310430800803E-2</v>
       </c>
-      <c r="U2" s="5">
+      <c r="V2" s="6">
         <f>P4</f>
         <v>0.101530293795098</v>
       </c>
-      <c r="V2" s="5">
+      <c r="W2" s="6">
         <f>P5</f>
         <v>0.105514742244953</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="X2" s="6">
+        <f>P6</f>
+        <v>8.1732378554561405E-2</v>
+      </c>
+      <c r="Y2" s="6">
+        <f>P7</f>
+        <v>0.128296807618589</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>P8</f>
+        <v>0.37213812496097398</v>
+      </c>
+      <c r="AA2" s="6">
+        <f>P9</f>
+        <v>0.99377130598532104</v>
+      </c>
+      <c r="AB2" s="6">
+        <f>P10</f>
+        <v>0.99814338881887299</v>
+      </c>
+      <c r="AC2" s="6">
+        <f>P11</f>
+        <v>0.99216247324951001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="7">
         <v>0.3</v>
       </c>
@@ -18337,114 +20826,129 @@
       <c r="P3" s="1">
         <v>7.5435310430800803E-2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA3" s="5">
+        <f>P3</f>
+        <v>7.5435310430800803E-2</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>P4</f>
+        <v>0.101530293795098</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>P5</f>
+        <v>0.105514742244953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.99700142156094396</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.99682016310779797</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.909417066332399</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.99845046503135004</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.99837607469027201</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
         <v>0.7</v>
       </c>
-      <c r="T3" s="5">
+      <c r="O4" s="1">
+        <v>0.124147814037815</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.101530293795098</v>
+      </c>
+      <c r="S4">
+        <v>0.7</v>
+      </c>
+      <c r="AA4" s="5">
         <f>P6</f>
         <v>8.1732378554561405E-2</v>
       </c>
-      <c r="U3" s="5">
+      <c r="AB4" s="5">
         <f>P7</f>
         <v>0.128296807618589</v>
       </c>
-      <c r="V3" s="5">
+      <c r="AC4" s="5">
         <f>P8</f>
         <v>0.37213812496097398</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>0.6</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:29">
+      <c r="A5">
+        <v>0.9</v>
+      </c>
+      <c r="B5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C4" s="9">
-        <v>0.99700142156094396</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.99682016310779797</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25.909417066332399</v>
-      </c>
-      <c r="G4">
-        <v>0.6</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C5" s="1">
+        <v>0.99649379196631505</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99621976052930705</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26.7675591382114</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="1">
         <v>2.5</v>
       </c>
-      <c r="I4" s="5">
-        <v>0.99845046503135004</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.99837607469027201</v>
-      </c>
-      <c r="M4">
+      <c r="M5">
         <v>0.3</v>
       </c>
-      <c r="N4">
-        <v>0.7</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.124147814037815</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.101530293795098</v>
-      </c>
-      <c r="S4">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.12666432036703101</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.105514742244953</v>
+      </c>
+      <c r="S5">
         <v>0.9</v>
       </c>
-      <c r="T4" s="5">
+      <c r="AA5" s="5">
         <f>P9</f>
         <v>0.99377130598532104</v>
       </c>
-      <c r="U4" s="5">
-        <f>P19</f>
+      <c r="AB5" s="5">
+        <f>P20</f>
         <v>0.99672801553520796</v>
       </c>
-      <c r="V4" s="5">
-        <f>P20</f>
+      <c r="AC5" s="5">
+        <f>P21</f>
         <v>0.99620063830389705</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>0.9</v>
-      </c>
-      <c r="B5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.99649379196631505</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.99621976052930705</v>
-      </c>
-      <c r="E5" s="1">
-        <v>26.7675591382114</v>
-      </c>
-      <c r="G5">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="M5">
-        <v>0.3</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.12666432036703101</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.105514742244953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>1.2</v>
       </c>
@@ -18479,7 +20983,7 @@
         <v>8.1732378554561405E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -18514,7 +21018,7 @@
         <v>0.128296807618589</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>1.9</v>
       </c>
@@ -18549,7 +21053,7 @@
         <v>0.37213812496097398</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -18584,7 +21088,7 @@
         <v>0.99377130598532104</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>0.3</v>
       </c>
@@ -18621,14 +21125,14 @@
       <c r="N10">
         <v>2.5</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="11">
         <v>0.99820301162700098</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <v>0.99814338881887299</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>0.3</v>
       </c>
@@ -18664,7 +21168,7 @@
         <v>0.99216247324951001</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>0.3</v>
       </c>
@@ -18686,16 +21190,20 @@
       <c r="H12" s="1">
         <v>2.8</v>
       </c>
-      <c r="M12" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="M12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -18717,14 +21225,16 @@
       <c r="H13" s="1">
         <v>2.8</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="21">
         <v>0.5</v>
       </c>
-      <c r="N13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="N13" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -18750,10 +21260,10 @@
         <v>0.5</v>
       </c>
       <c r="N14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>0.3</v>
       </c>
@@ -18779,10 +21289,10 @@
         <v>0.5</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>0.3</v>
       </c>
@@ -18802,7 +21312,7 @@
         <v>0.5</v>
       </c>
       <c r="N16">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18825,7 +21335,7 @@
         <v>0.5</v>
       </c>
       <c r="N17">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -18848,83 +21358,89 @@
         <v>0.5</v>
       </c>
       <c r="N18">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="M19" s="22">
         <v>0.5</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="M20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O20" s="22">
         <v>0.99689891449684798</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P20" s="22">
         <v>0.99672801553520796</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="M20">
+    <row r="21" spans="1:16">
+      <c r="M21">
         <v>0.5</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>2.5</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O21" s="5">
         <v>0.99659953493572395</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P21" s="5">
         <v>0.99620063830389705</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="M21" s="5">
+    <row r="22" spans="1:16">
+      <c r="M22" s="5">
         <v>0.5</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>2.8</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O22" s="5">
         <v>2.5800494948756799E-2</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P22" s="5">
         <v>1.7421163822083498E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="M22" s="23">
+    <row r="23" spans="1:16">
+      <c r="M23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="M24" s="23">
         <v>0.7</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N24" s="23">
         <v>0.1</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="M23">
-        <v>0.7</v>
-      </c>
-      <c r="N23">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="M24">
-        <v>0.7</v>
-      </c>
-      <c r="N24">
-        <v>0.7</v>
-      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16">
       <c r="M25">
         <v>0.7</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -18932,7 +21448,7 @@
         <v>0.7</v>
       </c>
       <c r="N26">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -18940,7 +21456,7 @@
         <v>0.7</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -18948,21 +21464,15 @@
         <v>0.7</v>
       </c>
       <c r="N28">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="M29">
         <v>0.7</v>
       </c>
-      <c r="N29" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O29" s="5">
-        <v>0.99844535101737397</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0.99846462103771205</v>
+      <c r="N29">
+        <v>1.6</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -18970,62 +21480,74 @@
         <v>0.7</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
-      </c>
-      <c r="O30" s="5">
-        <v>1.6894316798075602E-2</v>
-      </c>
-      <c r="P30" s="5">
-        <v>1.26692786830521E-2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="M31">
         <v>0.7</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.99844535101737397</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.99846462103771205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="M32">
+        <v>0.7</v>
+      </c>
+      <c r="N32">
+        <v>2.5</v>
+      </c>
+      <c r="O32" s="5">
+        <v>1.6894316798075602E-2</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1.26692786830521E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:22">
+      <c r="M33">
+        <v>0.7</v>
+      </c>
+      <c r="N33">
         <v>2.8</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O33" s="5">
         <v>4.8827333114792197E-2</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P33" s="5">
         <v>3.7434444673984997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="M32" s="23">
+    <row r="34" spans="13:22">
+      <c r="M34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="13:22">
+      <c r="M35" s="23">
         <v>0.9</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N35" s="23">
         <v>0.1</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="13:22">
-      <c r="M33" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="N33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="13:22">
-      <c r="M34" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="N34">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="13:22">
-      <c r="M35" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -19035,7 +21557,7 @@
         <v>0.9</v>
       </c>
       <c r="N36">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -19045,7 +21567,7 @@
         <v>0.9</v>
       </c>
       <c r="N37">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -19055,48 +21577,72 @@
         <v>0.9</v>
       </c>
       <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="13:22">
+      <c r="M39" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N39">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="13:22">
+      <c r="M40" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N40">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="41" spans="13:22">
+      <c r="M41" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="N41">
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" spans="13:22">
-      <c r="M39">
+    <row r="42" spans="13:22">
+      <c r="M42">
         <v>0.9</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N42" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O42" s="5">
         <v>0.99879633533495804</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P42" s="5">
         <v>0.99868591146533103</v>
       </c>
     </row>
-    <row r="40" spans="13:22">
-      <c r="M40">
+    <row r="43" spans="13:22">
+      <c r="M43">
         <v>0.9</v>
       </c>
-      <c r="N40">
+      <c r="N43">
         <v>2.5</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O43" s="5">
         <v>2.2597942669239202E-2</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P43" s="5">
         <v>2.0561717472259499E-2</v>
       </c>
     </row>
-    <row r="41" spans="13:22">
-      <c r="M41">
+    <row r="44" spans="13:22">
+      <c r="M44">
         <v>0.9</v>
       </c>
-      <c r="N41">
+      <c r="N44">
         <v>2.8</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O44" s="5">
         <v>2.4694577912838599E-2</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P44" s="5">
         <v>2.48559342758627E-2</v>
       </c>
     </row>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCC925-3656-4E00-BC1A-69616BC5E27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E0145-3EDD-4D0A-BB8D-D6BCFF325336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5598,6 +5598,9 @@
                 <c:pt idx="4">
                   <c:v>5.5207500250026097E-2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.183544275958646</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99672801553520796</c:v>
                 </c:pt>
@@ -6605,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.0407158947645404E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26040022941611102</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99689891449684798</c:v>
@@ -26174,7 +26180,7 @@
   <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26943,6 +26949,12 @@
       </c>
       <c r="N18">
         <v>1.6</v>
+      </c>
+      <c r="O18">
+        <v>0.26040022941611102</v>
+      </c>
+      <c r="P18">
+        <v>0.183544275958646</v>
       </c>
     </row>
     <row r="19" spans="1:16">

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E0145-3EDD-4D0A-BB8D-D6BCFF325336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C286121-77AC-4AD3-B0D6-9C25D3AD5F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -5601,6 +5601,9 @@
                 <c:pt idx="5">
                   <c:v>0.183544275958646</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99033647609276299</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99672801553520796</c:v>
                 </c:pt>
@@ -6611,6 +6614,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.26040022941611102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99128783527737097</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99689891449684798</c:v>
@@ -26180,7 +26186,7 @@
   <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26963,6 +26969,12 @@
       </c>
       <c r="N19">
         <v>1.9</v>
+      </c>
+      <c r="O19">
+        <v>0.99128783527737097</v>
+      </c>
+      <c r="P19">
+        <v>0.99033647609276299</v>
       </c>
     </row>
     <row r="20" spans="1:16">

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C286121-77AC-4AD3-B0D6-9C25D3AD5F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D7FEB-A5BB-4B43-9D86-4611A4052206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +465,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3833,14 +3834,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0.000000">
+                  <c:v>0.10500272679921201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13871103527035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9524155249113206E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3100631858406299E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5207500250026097E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.183544275958646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99033647609276299</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5435310430800803E-2</c:v>
+                  <c:v>0.99672801553520796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.101530293795098</c:v>
+                  <c:v>0.99620063830389705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.105514742244953</c:v>
+                  <c:v>1.7421163822083498E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,18 +3938,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Coeffecient_test!$T$4:$AC$4</c:f>
+              <c:f>Coeffecient_test!$P$24:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.172423876309065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16222259988849699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6433118540039401E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4684222351394594E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20171805995945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24047990742434799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99633611743997996</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1732378554561405E-2</c:v>
+                  <c:v>0.99846462103771205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.128296807618589</c:v>
+                  <c:v>1.26692786830521E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37213812496097398</c:v>
+                  <c:v>3.7434444673984997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,6 +4050,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8576275351925498E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176502682198768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118316779118827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.145357826053295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14716857692451499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20171805995945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99987873027641005</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99377130598532104</c:v>
                 </c:pt>
@@ -7117,6 +7181,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.172423876309065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16222259988849699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6433118540039401E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4684222351394594E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20171805995945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24047990742434799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99633611743997996</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99846462103771205</c:v>
                 </c:pt>
@@ -7616,6 +7701,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21888586687327299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20333007070241599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6634519538107098E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3884768551112899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24442333299608299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.302905126442233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99641615358045099</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99844535101737397</c:v>
                 </c:pt>
@@ -8004,7 +8110,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>at Local Confidence 0.3</a:t>
+              <a:t>at Local Confidence 0.9</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8115,6 +8221,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8576275351925498E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176502682198768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118316779118827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.145357826053295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14716857692451499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12345055898356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99987873027641005</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99868591146533103</c:v>
                 </c:pt>
@@ -8503,7 +8630,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>at Local Confidence 0.3</a:t>
+              <a:t>at Local Confidence 0.9</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8553,6 +8680,9 @@
               <c:f>Coeffecient_test!$O$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.063878184</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -8611,6 +8741,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.3878184201954805E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21227162341664599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.155398827625812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.180770695894345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.203418148706764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16859880272936001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99986370974146899</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.99879633533495804</c:v>
                 </c:pt>
@@ -24303,16 +24454,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>633411</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26185,8 +26336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="M25" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26397,17 +26548,45 @@
       <c r="S3" s="5">
         <v>0.5</v>
       </c>
+      <c r="T3" s="6">
+        <f>P13</f>
+        <v>0.10500272679921201</v>
+      </c>
+      <c r="U3">
+        <f>P14</f>
+        <v>0.13871103527035</v>
+      </c>
+      <c r="V3">
+        <f>P15</f>
+        <v>6.9524155249113206E-2</v>
+      </c>
+      <c r="W3">
+        <f>P16</f>
+        <v>8.3100631858406299E-2</v>
+      </c>
+      <c r="X3">
+        <f>P17</f>
+        <v>5.5207500250026097E-2</v>
+      </c>
+      <c r="Y3">
+        <f>P18</f>
+        <v>0.183544275958646</v>
+      </c>
+      <c r="Z3">
+        <f>P19</f>
+        <v>0.99033647609276299</v>
+      </c>
       <c r="AA3" s="5">
-        <f>P3</f>
-        <v>7.5435310430800803E-2</v>
+        <f>P20</f>
+        <v>0.99672801553520796</v>
       </c>
       <c r="AB3" s="5">
-        <f>P4</f>
-        <v>0.101530293795098</v>
+        <f>P21</f>
+        <v>0.99620063830389705</v>
       </c>
       <c r="AC3" s="5">
-        <f>P5</f>
-        <v>0.105514742244953</v>
+        <f>P22</f>
+        <v>1.7421163822083498E-2</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -26453,6 +26632,34 @@
       <c r="S4">
         <v>0.7</v>
       </c>
+      <c r="T4">
+        <f>P24</f>
+        <v>0.172423876309065</v>
+      </c>
+      <c r="U4">
+        <f>P25</f>
+        <v>0.16222259988849699</v>
+      </c>
+      <c r="V4">
+        <f>P26</f>
+        <v>2.6433118540039401E-2</v>
+      </c>
+      <c r="W4">
+        <f>P27</f>
+        <v>6.4684222351394594E-2</v>
+      </c>
+      <c r="X4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y4">
+        <f>P29</f>
+        <v>0.24047990742434799</v>
+      </c>
+      <c r="Z4">
+        <f>P30</f>
+        <v>0.99633611743997996</v>
+      </c>
       <c r="AA4" s="5">
         <f>P6</f>
         <v>8.1732378554561405E-2</v>
@@ -26503,6 +26710,34 @@
       <c r="S5">
         <v>0.9</v>
       </c>
+      <c r="T5">
+        <f>P35</f>
+        <v>4.8576275351925498E-2</v>
+      </c>
+      <c r="U5">
+        <f>P36</f>
+        <v>0.176502682198768</v>
+      </c>
+      <c r="V5">
+        <f>P37</f>
+        <v>0.118316779118827</v>
+      </c>
+      <c r="W5">
+        <f>P38</f>
+        <v>0.145357826053295</v>
+      </c>
+      <c r="X5">
+        <f>P39</f>
+        <v>0.14716857692451499</v>
+      </c>
+      <c r="Y5">
+        <f>P28</f>
+        <v>0.20171805995945</v>
+      </c>
+      <c r="Z5">
+        <f>P41</f>
+        <v>0.99987873027641005</v>
+      </c>
       <c r="AA5" s="5">
         <f>P9</f>
         <v>0.99377130598532104</v>
@@ -27040,8 +27275,12 @@
       <c r="N24" s="23">
         <v>0.1</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
+      <c r="O24">
+        <v>0.21888586687327299</v>
+      </c>
+      <c r="P24" s="23">
+        <v>0.172423876309065</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="M25">
@@ -27050,6 +27289,12 @@
       <c r="N25">
         <v>0.4</v>
       </c>
+      <c r="O25">
+        <v>0.20333007070241599</v>
+      </c>
+      <c r="P25">
+        <v>0.16222259988849699</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="M26">
@@ -27058,6 +27303,12 @@
       <c r="N26">
         <v>0.7</v>
       </c>
+      <c r="O26">
+        <v>3.6634519538107098E-2</v>
+      </c>
+      <c r="P26">
+        <v>2.6433118540039401E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="M27">
@@ -27066,6 +27317,12 @@
       <c r="N27">
         <v>1</v>
       </c>
+      <c r="O27" s="27">
+        <v>9.3884768551112899E-2</v>
+      </c>
+      <c r="P27">
+        <v>6.4684222351394594E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="M28">
@@ -27074,6 +27331,12 @@
       <c r="N28">
         <v>1.3</v>
       </c>
+      <c r="O28">
+        <v>0.24442333299608299</v>
+      </c>
+      <c r="P28">
+        <v>0.20171805995945</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="M29">
@@ -27082,6 +27345,12 @@
       <c r="N29">
         <v>1.6</v>
       </c>
+      <c r="O29" s="27">
+        <v>0.302905126442233</v>
+      </c>
+      <c r="P29" s="27">
+        <v>0.24047990742434799</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="M30">
@@ -27090,6 +27359,12 @@
       <c r="N30">
         <v>1.9</v>
       </c>
+      <c r="O30" s="27">
+        <v>0.99641615358045099</v>
+      </c>
+      <c r="P30">
+        <v>0.99633611743997996</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="M31">
@@ -27154,8 +27429,12 @@
       <c r="N35" s="23">
         <v>0.1</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="O35" s="23">
+        <v>6.3878184201954805E-2</v>
+      </c>
+      <c r="P35" s="23">
+        <v>4.8576275351925498E-2</v>
+      </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
@@ -27167,6 +27446,12 @@
       <c r="N36">
         <v>0.4</v>
       </c>
+      <c r="O36">
+        <v>0.21227162341664599</v>
+      </c>
+      <c r="P36">
+        <v>0.176502682198768</v>
+      </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
@@ -27177,6 +27462,12 @@
       <c r="N37">
         <v>0.7</v>
       </c>
+      <c r="O37">
+        <v>0.155398827625812</v>
+      </c>
+      <c r="P37">
+        <v>0.118316779118827</v>
+      </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
@@ -27187,6 +27478,12 @@
       <c r="N38">
         <v>1</v>
       </c>
+      <c r="O38">
+        <v>0.180770695894345</v>
+      </c>
+      <c r="P38">
+        <v>0.145357826053295</v>
+      </c>
     </row>
     <row r="39" spans="13:22">
       <c r="M39" s="24">
@@ -27195,6 +27492,12 @@
       <c r="N39">
         <v>1.3</v>
       </c>
+      <c r="O39">
+        <v>0.203418148706764</v>
+      </c>
+      <c r="P39">
+        <v>0.14716857692451499</v>
+      </c>
     </row>
     <row r="40" spans="13:22">
       <c r="M40" s="24">
@@ -27203,6 +27506,12 @@
       <c r="N40">
         <v>1.6</v>
       </c>
+      <c r="O40">
+        <v>0.16859880272936001</v>
+      </c>
+      <c r="P40">
+        <v>0.12345055898356</v>
+      </c>
     </row>
     <row r="41" spans="13:22">
       <c r="M41" s="24">
@@ -27211,6 +27520,12 @@
       <c r="N41">
         <v>1.9</v>
       </c>
+      <c r="O41">
+        <v>0.99986370974146899</v>
+      </c>
+      <c r="P41">
+        <v>0.99987873027641005</v>
+      </c>
     </row>
     <row r="42" spans="13:22">
       <c r="M42">
@@ -27321,12 +27636,12 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D7FEB-A5BB-4B43-9D86-4611A4052206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98EF55-AD49-41B4-8DF9-9D8628DD4CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26336,8 +26336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M25" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="P25" workbookViewId="0">
+      <selection activeCell="AD65" sqref="AD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98EF55-AD49-41B4-8DF9-9D8628DD4CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF011E-4BDC-48A0-A3F8-F2E3B7BF9D63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="3345" windowWidth="25215" windowHeight="15435" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -34,35 +34,17 @@
     <definedName name="_xlchart.v1.15" hidden="1">'consistency-1MB'!$R$2:$R$436</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'consistency-1MB'!$S$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'consistency-1MB'!$S$2:$S$436</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'consistency-1MB'!$K$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'consistency-1MB'!$K$2:$K$436</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'consistency-500kb'!$K$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'consistency-500kb'!$K$2:$K$2188</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'consistency-1MB'!$L$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'consistency-1MB'!$L$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'consistency-1MB'!$L$2:$L$436</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'consistency-1MB'!$M$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'consistency-1MB'!$M$2:$M$436</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'consistency-1MB'!$N$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'consistency-1MB'!$N$2:$N$436</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'consistency-1MB'!$O$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'consistency-1MB'!$O$2:$O$436</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'consistency-1MB'!$P$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'consistency-1MB'!$P$2:$P$436</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'consistency-500kb'!$L$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'consistency-500kb'!$L$2:$L$2188</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'consistency-500kb'!$M$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'consistency-500kb'!$M$2:$M$2188</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'consistency-500kb'!$N$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'consistency-500kb'!$N$2:$N$2188</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'consistency-1MB'!$L$2:$L$436</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'consistency-1MB'!$Q$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'consistency-1MB'!$Q$2:$Q$436</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'consistency-1MB'!$R$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'consistency-1MB'!$R$2:$R$436</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'consistency-1MB'!$S$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'consistency-1MB'!$S$2:$S$436</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'consistency-500kb'!$K$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'consistency-500kb'!$K$2:$K$2188</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'consistency-500kb'!$L$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'consistency-500kb'!$L$2:$L$2188</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'consistency-1MB'!$M$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'consistency-500kb'!$M$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'consistency-500kb'!$M$2:$M$2188</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'consistency-500kb'!$N$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'consistency-500kb'!$N$2:$N$2188</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'consistency-1MB'!$M$2:$M$436</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'consistency-1MB'!$N$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'consistency-1MB'!$N$2:$N$436</definedName>
@@ -4646,7 +4628,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -15218,10 +15199,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swarmSizeTest!$A$2:$A$4</c:f>
+              <c:f>swarmSizeTest!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -15229,6 +15210,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -15236,18 +15220,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swarmSizeTest!$B$2:$B$4</c:f>
+              <c:f>swarmSizeTest!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.329329113090999</c:v>
+                  <c:v>381.89804409596297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.597125906735901</c:v>
+                  <c:v>92.419394459013404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.0155616133415</c:v>
+                  <c:v>166.26041119392599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.283251665744199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15334,7 +15321,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15475,6 +15462,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -15616,10 +15609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swarmSizeTest!$A$2:$A$4</c:f>
+              <c:f>swarmSizeTest!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -15627,6 +15620,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -15634,18 +15630,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swarmSizeTest!$C$2:$C$4</c:f>
+              <c:f>swarmSizeTest!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99632680940065599</c:v>
+                  <c:v>0.99690667592065496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99982768835176195</c:v>
+                  <c:v>0.99919536245080898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99998240332545996</c:v>
+                  <c:v>0.99895894342573399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99984288605976002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15732,7 +15731,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15873,6 +15872,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -16014,10 +16019,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swarmSizeTest!$A$2:$A$4</c:f>
+              <c:f>swarmSizeTest!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -16025,6 +16030,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -16032,18 +16040,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swarmSizeTest!$D$2:$D$4</c:f>
+              <c:f>swarmSizeTest!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99575660753782902</c:v>
+                  <c:v>0.996975446948688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99980107722594902</c:v>
+                  <c:v>0.99920804353688097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99997923148544599</c:v>
+                  <c:v>0.99894782884359501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99982462728822397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16130,7 +16141,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16271,6 +16282,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -16412,10 +16429,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swarmSizeTest!$A$2:$A$4</c:f>
+              <c:f>swarmSizeTest!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -16423,6 +16440,9 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -16430,18 +16450,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swarmSizeTest!$E$2:$E$4</c:f>
+              <c:f>swarmSizeTest!$E$2:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.0000">
                   <c:v>170.06859517097499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.267109394074</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>660.24529170990002</c:v>
+                  <c:v>519.625492811203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>758.22447657585099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1021.04460740089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16669,6 +16692,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -17561,47 +17590,47 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17639,7 +17668,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E74A45CE-B0CE-4284-AD37-4930D0C01BCC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>chr1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17652,7 +17681,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4609CE68-5C56-4848-9F7F-D5A847B5B531}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>chr2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17665,7 +17694,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B572AA01-5165-4463-9556-6071969C41E6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>chr5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17678,7 +17707,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0C22D4F5-4BCE-466F-A466-25E8A48B3543}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>chr10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17691,7 +17720,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8CB4A5A0-6872-4707-A7D7-7DC65CC83719}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>chr15</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17704,7 +17733,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B7B94A64-8346-49DD-9086-43559FCFD78D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>chr19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17717,7 +17746,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D3994CC7-33C9-4B5A-B63C-1071FA6518E9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>chr20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17730,7 +17759,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BBDBC415-1A60-4213-BA90-2D8510942363}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>chr21</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17743,7 +17772,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{380E1564-8E15-44AC-BDEF-5F3A534B83E8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>chr22</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17822,22 +17851,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17875,7 +17904,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FC0FDC28-34D3-4A75-A532-D3429BECE732}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>chr1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17888,7 +17917,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FDF954FF-C90D-448A-BAC7-9EB7101C5083}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>chr10</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17901,7 +17930,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{37A695BD-6086-4712-9A72-01FE7C456FFF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>chr19</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17914,7 +17943,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{588D971C-E56B-4A45-8E9E-CFAF2A37CD1E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>chr22</cx:v>
             </cx:txData>
           </cx:tx>
@@ -25818,7 +25847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -25847,14 +25878,14 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>25.329329113090999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.99632680940065599</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.99575660753782902</v>
+      <c r="B2" s="5">
+        <v>381.89804409596297</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.99690667592065496</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.996975446948688</v>
       </c>
       <c r="E2" s="3">
         <v>170.06859517097499</v>
@@ -25864,41 +25895,53 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>24.597125906735901</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.99982768835176195</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.99980107722594902</v>
-      </c>
-      <c r="E3" s="3">
-        <v>415.267109394074</v>
+      <c r="B3" s="5">
+        <v>92.419394459013404</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.99919536245080898</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.99920804353688097</v>
+      </c>
+      <c r="E3" s="5">
+        <v>519.625492811203</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>166.26041119392599</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.99895894342573399</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.99894782884359501</v>
+      </c>
+      <c r="E4" s="5">
+        <v>758.22447657585099</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
-        <v>26.0155616133415</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.99998240332545996</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.99997923148544599</v>
-      </c>
-      <c r="E4" s="4">
-        <v>660.24529170990002</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="5">
+        <v>20.283251665744199</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.99984288605976002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.99982462728822397</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1021.04460740089</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" s="1"/>
@@ -25977,12 +26020,12 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26336,7 +26379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P25" workbookViewId="0">
+    <sheetView topLeftCell="P25" workbookViewId="0">
       <selection activeCell="AD65" sqref="AD65"/>
     </sheetView>
   </sheetViews>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF011E-4BDC-48A0-A3F8-F2E3B7BF9D63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DF9C6-9C2C-42A9-86CF-8686A296AAB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>alpha</t>
   </si>
@@ -212,6 +212,12 @@
   <si>
     <t>Pearson</t>
   </si>
+  <si>
+    <t>GEM</t>
+  </si>
+  <si>
+    <t>MOGEN</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -382,6 +388,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -406,9 +421,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,6 +460,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -626,7 +639,7 @@
             <c:numRef>
               <c:f>parameterChoiceForBestAlpha!$B$5:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>23.012279518421199</c:v>
@@ -641,49 +654,49 @@
                   <c:v>23.1449398815287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.798873671009499</c:v>
+                  <c:v>24.7988736710094</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24.8124613205858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.483400633722301</c:v>
+                  <c:v>25.483400633722201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.7913822674656</c:v>
+                  <c:v>25.791382267465501</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25.5710091854511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.0155616133415</c:v>
+                  <c:v>26.015561613341401</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>26.901961503762902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.650718447653901</c:v>
+                  <c:v>26.650718447653801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.9199866318876</c:v>
+                  <c:v>26.9199866318875</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27.530539306523998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.9276842430668</c:v>
+                  <c:v>27.9276842430667</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>28.441634793128699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.792831274700099</c:v>
+                  <c:v>26.792831274699999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.150943157423701</c:v>
+                  <c:v>28.150943157423601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.638854257439998</c:v>
+                  <c:v>28.638854257439899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +783,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1084,22 +1097,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25.891424833776</c:v>
+                  <c:v>25.891424833775901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.891424833776</c:v>
+                  <c:v>25.891424833775901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.297123007336101</c:v>
+                  <c:v>27.297123007336001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.297123007336101</c:v>
+                  <c:v>27.297123007336001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.297123007336101</c:v>
+                  <c:v>27.297123007336001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0155616133415</c:v>
+                  <c:v>26.015561613341401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,6 +1340,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -12090,7 +12109,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$B$1:$B$1</c:f>
+              <c:f>Comparison_1MB!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12201,7 +12220,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$C$1:$C$1</c:f>
+              <c:f>Comparison_1MB!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12312,7 +12331,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$D$1:$D$1</c:f>
+              <c:f>Comparison_1MB!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12423,7 +12442,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$E$1:$E$1</c:f>
+              <c:f>Comparison_1MB!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12534,7 +12553,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$F$1:$F$1</c:f>
+              <c:f>Comparison_1MB!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12645,7 +12664,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$G$1:$G$1</c:f>
+              <c:f>Comparison_1MB!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12756,7 +12775,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$H$1:$H$1</c:f>
+              <c:f>Comparison_1MB!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12867,7 +12886,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$I$1:$I$1</c:f>
+              <c:f>Comparison_1MB!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12970,6 +12989,210 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FF47-4690-8776-66F1BB6E6946}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison_1MB!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison_1MB!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.86346400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85942600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87469200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95001400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92203500000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89990099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84123999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.917462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88114700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88335900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88925900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87631400000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88539699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88532500000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84340599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81411500000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85247499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85168100000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87754799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94117099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B650-43DB-B8D8-4D2C044DB8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison_1MB!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOGEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison_1MB!$K$2:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.54938073595508796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68952073253407298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26792235788077701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79542309559473401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64313827773716004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60296102416430797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57485510979896104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36424311472329401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47512126305810498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36903588288995898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35767440129606498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56394104887348295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62587275150106503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62587275150106503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58563531874293895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57113302052441595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30224429685333798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70076352244269502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50661070108650696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57351307839104104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39429025647787402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56166624614466498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78559935992855301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B650-43DB-B8D8-4D2C044DB8E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15225,16 +15448,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>381.89804409596297</c:v>
+                  <c:v>26.283488521279899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.419394459013404</c:v>
+                  <c:v>26.022585013102901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.26041119392599</c:v>
+                  <c:v>26.289581379060898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.283251665744199</c:v>
+                  <c:v>26.513721237535901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15635,13 +15858,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99690667592065496</c:v>
+                  <c:v>0.99484799999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99919536245080898</c:v>
+                  <c:v>0.99919500000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99895894342573399</c:v>
+                  <c:v>0.99920412082972199</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.99984288605976002</c:v>
@@ -15672,6 +15895,8 @@
         <c:axId val="514545712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.99399999999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16045,16 +16270,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.996975446948688</c:v>
+                  <c:v>0.995251366505438</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99920804353688097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99894782884359501</c:v>
+                  <c:v>0.99843000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99982462728822397</c:v>
+                  <c:v>0.99982499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16082,6 +16307,8 @@
         <c:axId val="514555280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.99399999999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17114,6 +17341,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -17530,6 +17763,12 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln w="9528">
@@ -25545,7 +25784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -25571,7 +25812,7 @@
       <c r="A5">
         <v>0.1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>23.012279518421199</v>
       </c>
       <c r="C5" s="2">
@@ -25585,7 +25826,7 @@
       <c r="A6">
         <v>0.2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>23.074112635665099</v>
       </c>
       <c r="C6" s="2">
@@ -25599,7 +25840,7 @@
       <c r="A7">
         <v>0.3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>23.135882683431301</v>
       </c>
       <c r="C7" s="2">
@@ -25613,7 +25854,7 @@
       <c r="A8">
         <v>0.4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>23.1449398815287</v>
       </c>
       <c r="C8" s="2">
@@ -25627,8 +25868,8 @@
       <c r="A9">
         <v>0.5</v>
       </c>
-      <c r="B9" s="1">
-        <v>24.798873671009499</v>
+      <c r="B9" s="4">
+        <v>24.7988736710094</v>
       </c>
       <c r="C9" s="2">
         <v>0.97006051702167995</v>
@@ -25641,7 +25882,7 @@
       <c r="A10">
         <v>0.6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>24.8124613205858</v>
       </c>
       <c r="C10" s="2">
@@ -25655,8 +25896,8 @@
       <c r="A11">
         <v>0.7</v>
       </c>
-      <c r="B11" s="1">
-        <v>25.483400633722301</v>
+      <c r="B11" s="4">
+        <v>25.483400633722201</v>
       </c>
       <c r="C11" s="2">
         <v>0.99194224352989202</v>
@@ -25669,8 +25910,8 @@
       <c r="A12">
         <v>0.8</v>
       </c>
-      <c r="B12" s="1">
-        <v>25.7913822674656</v>
+      <c r="B12" s="4">
+        <v>25.791382267465501</v>
       </c>
       <c r="C12" s="2">
         <v>0.99667131903227302</v>
@@ -25683,7 +25924,7 @@
       <c r="A13">
         <v>0.9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>25.5710091854511</v>
       </c>
       <c r="C13" s="2">
@@ -25697,8 +25938,8 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>26.0155616133415</v>
+      <c r="B14" s="4">
+        <v>26.015561613341401</v>
       </c>
       <c r="C14" s="2">
         <v>0.99998240332545996</v>
@@ -25711,7 +25952,7 @@
       <c r="A15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>26.901961503762902</v>
       </c>
       <c r="C15" s="2">
@@ -25725,8 +25966,8 @@
       <c r="A16">
         <v>1.2</v>
       </c>
-      <c r="B16" s="1">
-        <v>26.650718447653901</v>
+      <c r="B16" s="4">
+        <v>26.650718447653801</v>
       </c>
       <c r="C16" s="2">
         <v>0.99695648333834097</v>
@@ -25739,8 +25980,8 @@
       <c r="A17">
         <v>1.3</v>
       </c>
-      <c r="B17" s="1">
-        <v>26.9199866318876</v>
+      <c r="B17" s="4">
+        <v>26.9199866318875</v>
       </c>
       <c r="C17" s="2">
         <v>0.99311684481145202</v>
@@ -25753,7 +25994,7 @@
       <c r="A18">
         <v>1.4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>27.530539306523998</v>
       </c>
       <c r="C18" s="2">
@@ -25767,8 +26008,8 @@
       <c r="A19">
         <v>1.5</v>
       </c>
-      <c r="B19" s="1">
-        <v>27.9276842430668</v>
+      <c r="B19" s="4">
+        <v>27.9276842430667</v>
       </c>
       <c r="C19" s="2">
         <v>0.98376250136638399</v>
@@ -25781,7 +26022,7 @@
       <c r="A20">
         <v>1.6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>28.441634793128699</v>
       </c>
       <c r="C20" s="2">
@@ -25795,8 +26036,8 @@
       <c r="A21">
         <v>1.7</v>
       </c>
-      <c r="B21" s="1">
-        <v>26.792831274700099</v>
+      <c r="B21" s="4">
+        <v>26.792831274699999</v>
       </c>
       <c r="C21" s="2">
         <v>0.971507489856134</v>
@@ -25809,8 +26050,8 @@
       <c r="A22">
         <v>1.8</v>
       </c>
-      <c r="B22" s="1">
-        <v>28.150943157423701</v>
+      <c r="B22" s="4">
+        <v>28.150943157423601</v>
       </c>
       <c r="C22" s="2">
         <v>0.96467296875370301</v>
@@ -25823,8 +26064,8 @@
       <c r="A23">
         <v>1.9</v>
       </c>
-      <c r="B23" s="1">
-        <v>28.638854257439998</v>
+      <c r="B23" s="4">
+        <v>28.638854257439899</v>
       </c>
       <c r="C23" s="2">
         <v>0.957496353993884</v>
@@ -25847,8 +26088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25878,14 +26119,14 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>381.89804409596297</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.99690667592065496</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.996975446948688</v>
+      <c r="B2" s="4">
+        <v>26.283488521279899</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.99484799999999995</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.995251366505438</v>
       </c>
       <c r="E2" s="3">
         <v>170.06859517097499</v>
@@ -25895,16 +26136,16 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
-        <v>92.419394459013404</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.99919536245080898</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="4">
+        <v>26.022585013102901</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.99919500000000006</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.99920804353688097</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>519.625492811203</v>
       </c>
     </row>
@@ -25912,34 +26153,34 @@
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
-        <v>166.26041119392599</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.99895894342573399</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.99894782884359501</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="4">
+        <v>26.289581379060898</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.99920412082972199</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.99843000000000004</v>
+      </c>
+      <c r="E4" s="4">
         <v>758.22447657585099</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>20.283251665744199</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="4">
+        <v>26.513721237535901</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.99984288605976002</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.99982462728822397</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4">
+        <v>0.99982499999999996</v>
+      </c>
+      <c r="E5" s="4">
         <v>1021.04460740089</v>
       </c>
     </row>
@@ -26033,7 +26274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -26056,7 +26299,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0.1</v>
       </c>
       <c r="B2" s="2">
@@ -26066,12 +26309,12 @@
         <v>0.99511077116147595</v>
       </c>
       <c r="D2" s="4">
-        <v>25.891424833776</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>25.891424833775901</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>0.01</v>
       </c>
       <c r="B3" s="2">
@@ -26081,12 +26324,12 @@
         <v>0.99511077116147595</v>
       </c>
       <c r="D3" s="4">
-        <v>25.891424833776</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>25.891424833775901</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1E-3</v>
       </c>
       <c r="B4" s="2">
@@ -26096,12 +26339,12 @@
         <v>0.99532326179221398</v>
       </c>
       <c r="D4" s="4">
-        <v>27.297123007336101</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>27.297123007336001</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1E-4</v>
       </c>
       <c r="B5" s="2">
@@ -26111,12 +26354,12 @@
         <v>0.99532326179221398</v>
       </c>
       <c r="D5" s="4">
-        <v>27.297123007336101</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>27.297123007336001</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B6" s="2">
@@ -26126,12 +26369,12 @@
         <v>0.99532326179221398</v>
       </c>
       <c r="D6" s="4">
-        <v>27.297123007336101</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>27.297123007336001</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B7" s="2">
@@ -26141,9 +26384,9 @@
         <v>0.99997923148544599</v>
       </c>
       <c r="D7" s="4">
-        <v>26.0155616133415</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>26.015561613341401</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
@@ -26159,8 +26402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26379,7 +26622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView topLeftCell="P25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD65" sqref="AD65"/>
     </sheetView>
   </sheetViews>
@@ -26420,7 +26663,7 @@
       <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>45</v>
       </c>
       <c r="O1" t="s">
@@ -26482,71 +26725,71 @@
       <c r="H2" s="1">
         <v>2.5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.99845046503135004</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.99837607469027201</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="M2" s="23">
+      <c r="K2" s="4"/>
+      <c r="M2" s="22">
         <v>0.3</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>0.1</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>8.3145397809773702E-2</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>6.6322647822716504E-2</v>
       </c>
       <c r="S2">
         <v>0.3</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <f>P2</f>
         <v>6.6322647822716504E-2</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="5">
         <f>P3</f>
         <v>7.5435310430800803E-2</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <f>P4</f>
         <v>0.101530293795098</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <f>P5</f>
         <v>0.105514742244953</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <f>P6</f>
         <v>8.1732378554561405E-2</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <f>P7</f>
         <v>0.128296807618589</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="5">
         <f>P8</f>
         <v>0.37213812496097398</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <f>P9</f>
         <v>0.99377130598532104</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="5">
         <f>P10</f>
         <v>0.99814338881887299</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="5">
         <f>P11</f>
         <v>0.99216247324951001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0.3</v>
       </c>
       <c r="B3">
@@ -26561,21 +26804,21 @@
       <c r="E3" s="1">
         <v>26.636332184034099</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.3</v>
       </c>
       <c r="H3" s="1">
         <v>2.5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>C17</f>
         <v>0.99820301162700098</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>D17</f>
         <v>0.99814338881887299</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
       <c r="M3">
         <v>0.3</v>
       </c>
@@ -26588,10 +26831,10 @@
       <c r="P3" s="1">
         <v>7.5435310430800803E-2</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>0.5</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <f>P13</f>
         <v>0.10500272679921201</v>
       </c>
@@ -26619,15 +26862,15 @@
         <f>P19</f>
         <v>0.99033647609276299</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="4">
         <f>P20</f>
         <v>0.99672801553520796</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="4">
         <f>P21</f>
         <v>0.99620063830389705</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="4">
         <f>P22</f>
         <v>1.7421163822083498E-2</v>
       </c>
@@ -26639,10 +26882,10 @@
       <c r="B4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.99700142156094396</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.99682016310779797</v>
       </c>
       <c r="E4" s="1">
@@ -26654,10 +26897,10 @@
       <c r="H4" s="1">
         <v>2.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.99845046503135004</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.99837607469027201</v>
       </c>
       <c r="M4">
@@ -26703,15 +26946,15 @@
         <f>P30</f>
         <v>0.99633611743997996</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <f>P6</f>
         <v>8.1732378554561405E-2</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <f>P7</f>
         <v>0.128296807618589</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4" s="4">
         <f>P8</f>
         <v>0.37213812496097398</v>
       </c>
@@ -26781,15 +27024,15 @@
         <f>P41</f>
         <v>0.99987873027641005</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <f>P9</f>
         <v>0.99377130598532104</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <f>P20</f>
         <v>0.99672801553520796</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <f>P21</f>
         <v>0.99620063830389705</v>
       </c>
@@ -26924,7 +27167,7 @@
       <c r="M9">
         <v>0.3</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="O9" s="1">
@@ -26950,31 +27193,31 @@
       <c r="E10" s="1">
         <v>27.592048709781</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.3</v>
       </c>
       <c r="H10" s="1">
         <v>2.8</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>C18</f>
         <v>0.99298009111866203</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f>D18</f>
         <v>0.99216247324951001</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="7"/>
       <c r="M10">
         <v>0.3</v>
       </c>
       <c r="N10">
         <v>2.5</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>0.99820301162700098</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>0.99814338881887299</v>
       </c>
     </row>
@@ -27000,17 +27243,17 @@
       <c r="H11" s="1">
         <v>2.8</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4"/>
       <c r="M11">
         <v>0.3</v>
       </c>
       <c r="N11">
         <v>2.8</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>0.99298009111866203</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>0.99216247324951001</v>
       </c>
     </row>
@@ -27036,16 +27279,16 @@
       <c r="H12" s="1">
         <v>2.8</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -27071,16 +27314,16 @@
       <c r="H13" s="1">
         <v>2.8</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <v>0.5</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <v>0.1</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="22">
         <v>0.12843318810130699</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="22">
         <v>0.10500272679921201</v>
       </c>
     </row>
@@ -27106,7 +27349,7 @@
       <c r="H14" s="1">
         <v>2.8</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <v>0.5</v>
       </c>
       <c r="N14">
@@ -27141,7 +27384,7 @@
       <c r="H15" s="1">
         <v>2.8</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>0.5</v>
       </c>
       <c r="N15">
@@ -27158,7 +27401,7 @@
       <c r="A16">
         <v>0.3</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="C16" s="1">
@@ -27170,7 +27413,7 @@
       <c r="E16" s="1">
         <v>26.636332184034099</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>0.5</v>
       </c>
       <c r="N16">
@@ -27190,16 +27433,16 @@
       <c r="B17">
         <v>2.5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.99820301162700098</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>0.99814338881887299</v>
       </c>
       <c r="E17" s="1">
         <v>25.458332387009602</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <v>0.5</v>
       </c>
       <c r="N17">
@@ -27219,16 +27462,16 @@
       <c r="B18">
         <v>2.8</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>0.99298009111866203</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>0.99216247324951001</v>
       </c>
       <c r="E18" s="1">
         <v>26.038569260682301</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>0.5</v>
       </c>
       <c r="N18">
@@ -27242,7 +27485,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>0.5</v>
       </c>
       <c r="N19">
@@ -27256,16 +27499,16 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>0.5</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="21">
         <v>0.99689891449684798</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="21">
         <v>0.99672801553520796</v>
       </c>
     </row>
@@ -27276,52 +27519,52 @@
       <c r="N21">
         <v>2.5</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>0.99659953493572395</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <v>0.99620063830389705</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>0.5</v>
       </c>
       <c r="N22">
         <v>2.8</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>2.5800494948756799E-2</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <v>1.7421163822083498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="M24" s="23">
+      <c r="M24" s="22">
         <v>0.7</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="22">
         <v>0.1</v>
       </c>
       <c r="O24">
         <v>0.21888586687327299</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="22">
         <v>0.172423876309065</v>
       </c>
     </row>
@@ -27360,7 +27603,7 @@
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O27" s="26">
         <v>9.3884768551112899E-2</v>
       </c>
       <c r="P27">
@@ -27388,10 +27631,10 @@
       <c r="N29">
         <v>1.6</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="26">
         <v>0.302905126442233</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="26">
         <v>0.24047990742434799</v>
       </c>
     </row>
@@ -27402,7 +27645,7 @@
       <c r="N30">
         <v>1.9</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="26">
         <v>0.99641615358045099</v>
       </c>
       <c r="P30">
@@ -27413,13 +27656,13 @@
       <c r="M31">
         <v>0.7</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <v>0.99844535101737397</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="4">
         <v>0.99846462103771205</v>
       </c>
     </row>
@@ -27430,10 +27673,10 @@
       <c r="N32">
         <v>2.5</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="4">
         <v>1.6894316798075602E-2</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="4">
         <v>1.26692786830521E-2</v>
       </c>
     </row>
@@ -27444,46 +27687,46 @@
       <c r="N33">
         <v>2.8</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="4">
         <v>4.8827333114792197E-2</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33" s="4">
         <v>3.7434444673984997E-2</v>
       </c>
     </row>
     <row r="34" spans="13:22">
-      <c r="M34" s="25" t="s">
+      <c r="M34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="25" t="s">
+      <c r="P34" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="13:22">
-      <c r="M35" s="23">
+      <c r="M35" s="22">
         <v>0.9</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="22">
         <v>0.1</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="22">
         <v>6.3878184201954805E-2</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="22">
         <v>4.8576275351925498E-2</v>
       </c>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
     </row>
     <row r="36" spans="13:22">
-      <c r="M36" s="24">
+      <c r="M36" s="23">
         <v>0.9</v>
       </c>
       <c r="N36">
@@ -27495,11 +27738,11 @@
       <c r="P36">
         <v>0.176502682198768</v>
       </c>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
     </row>
     <row r="37" spans="13:22">
-      <c r="M37" s="24">
+      <c r="M37" s="23">
         <v>0.9</v>
       </c>
       <c r="N37">
@@ -27511,11 +27754,11 @@
       <c r="P37">
         <v>0.118316779118827</v>
       </c>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
     <row r="38" spans="13:22">
-      <c r="M38" s="24">
+      <c r="M38" s="23">
         <v>0.9</v>
       </c>
       <c r="N38">
@@ -27529,7 +27772,7 @@
       </c>
     </row>
     <row r="39" spans="13:22">
-      <c r="M39" s="24">
+      <c r="M39" s="23">
         <v>0.9</v>
       </c>
       <c r="N39">
@@ -27543,7 +27786,7 @@
       </c>
     </row>
     <row r="40" spans="13:22">
-      <c r="M40" s="24">
+      <c r="M40" s="23">
         <v>0.9</v>
       </c>
       <c r="N40">
@@ -27557,7 +27800,7 @@
       </c>
     </row>
     <row r="41" spans="13:22">
-      <c r="M41" s="24">
+      <c r="M41" s="23">
         <v>0.9</v>
       </c>
       <c r="N41">
@@ -27574,13 +27817,13 @@
       <c r="M42">
         <v>0.9</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <v>0.99879633533495804</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="4">
         <v>0.99868591146533103</v>
       </c>
     </row>
@@ -27591,10 +27834,10 @@
       <c r="N43">
         <v>2.5</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="4">
         <v>2.2597942669239202E-2</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="4">
         <v>2.0561717472259499E-2</v>
       </c>
     </row>
@@ -27605,10 +27848,10 @@
       <c r="N44">
         <v>2.8</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <v>2.4694577912838599E-2</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <v>2.48559342758627E-2</v>
       </c>
     </row>
@@ -27624,7 +27867,7 @@
       <c r="B76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="19">
         <v>0.94454510148248105</v>
       </c>
     </row>
@@ -27635,7 +27878,7 @@
       <c r="B77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="19">
         <v>0.94448065223720201</v>
       </c>
     </row>
@@ -27646,7 +27889,7 @@
       <c r="B78">
         <v>2.5</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="19">
         <v>0.94411056191776699</v>
       </c>
     </row>
@@ -27657,7 +27900,7 @@
       <c r="B79">
         <v>1.9</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="19">
         <v>0.944509436272298</v>
       </c>
     </row>
@@ -27757,13 +28000,13 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.99644676813178201</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.3863955365478799</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.99489709744798105</v>
       </c>
       <c r="E2">
@@ -27809,13 +28052,13 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.99959621907645901</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.88200462849956196</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.99962796415937605</v>
       </c>
       <c r="E3">
@@ -27861,13 +28104,13 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.99980094939376396</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.99009982924268802</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.99977975691179399</v>
       </c>
       <c r="E4">
@@ -27913,13 +28156,13 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.99776364471115497</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.9704463829856</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.99742718617565596</v>
       </c>
       <c r="E5">
@@ -27965,13 +28208,13 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.98631225686810897</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.3463021778468098</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.98940425891647599</v>
       </c>
       <c r="E6">
@@ -28017,13 +28260,13 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.99942239711541803</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2.10321964236587</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.99960656313853502</v>
       </c>
       <c r="E7">
@@ -28069,13 +28312,13 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.98483444286444999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2.1864554667745999</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.987824364481382</v>
       </c>
       <c r="E8">
@@ -28121,13 +28364,13 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.99254602929234803</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.2352008031058099</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.99541762961091995</v>
       </c>
       <c r="E9">
@@ -28173,13 +28416,13 @@
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.99907223486808305</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.7332857843328799</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.99906937831635301</v>
       </c>
       <c r="E10">
@@ -40632,13 +40875,13 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.99207141080852101</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.30551288346945</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.991772295808105</v>
       </c>
       <c r="E2">
@@ -40669,13 +40912,13 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.99473251008163299</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.3339599335952901</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.99306324103318699</v>
       </c>
       <c r="E3">
@@ -40706,13 +40949,13 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.99624330283762597</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.80200933215626</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.99670442867140296</v>
       </c>
       <c r="E4">
@@ -40743,13 +40986,13 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.999967936595893</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2.0840782922009198</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.99997885604931003</v>
       </c>
       <c r="E5">
@@ -54500,709 +54743,855 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="14">
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0.74691075439370036</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0.94314699999999996</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0.87192717401248487</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.74756999999999996</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0.86871057184859557</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>0.95654361697866108</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>0.89554484397116874</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.955638497906099</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="14">
+      <c r="J2" s="4">
+        <v>0.86346400000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.54938073595508796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>0.75998856583345109</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0.93279400000000001</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0.86020931840125403</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0.85336299999999998</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>0.90294011297576793</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>0.95634763935278677</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.89291791976640034</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.95549627213759103</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="14">
+      <c r="J3" s="4">
+        <v>0.85942600000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.68952073253407298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>0.78408409791692957</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>0.94905399999999995</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0.87835737432932348</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.84968599999999994</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>0.89829182804964836</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0.96663264567937413</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.8460090655027841</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.96623049423298202</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="14">
+      <c r="J4" s="4">
+        <v>0.87469200000000003</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.26792235788077701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.7585622539253124</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>0.97650300000000001</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.94928810945835362</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.83055000000000001</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>0.94459705130790994</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0.97796248604076474</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0.96495898219456622</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.97307541352750204</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="14">
+      <c r="J5" s="4">
+        <v>0.95001400000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.79542309559473401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>0.81324635575640292</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.96630199999999999</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0.92808136088861681</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.83852099999999996</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0.93451604381561482</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0.97511149115969653</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>0.93782653706856478</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.97493128392454298</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="14">
+      <c r="J6" s="4">
+        <v>0.92203500000000005</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.64313827773716004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>0.41247052796331363</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>0.95656399999999997</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>0.89371080630055189</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.79009099999999999</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.92647261456755514</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>0.96546029083373008</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>0.92920433212732456</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.96173649387161098</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="14">
+      <c r="J7" s="4">
+        <v>0.89990099999999995</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.60296102416430797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.6842996030290025</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.93394499999999991</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>0.86900403544380511</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.79592299999999994</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.89331140610130544</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0.94042477609969</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>0.84855818890220558</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.93736402081701198</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="14">
+      <c r="J8" s="4">
+        <v>0.84123999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.57485510979896104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0.8806202796884649</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.96462799999999993</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>0.9170807562639588</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.89051999999999998</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.9351393942998284</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>0.96920542394103792</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>0.94993089026019473</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.96815754724791803</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="14">
+      <c r="J9" s="4">
+        <v>0.917462</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.36424311472329401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.74934798994558216</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0.96462799999999993</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.91458712413482923</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.83960099999999993</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.84803003457680948</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0.95324844493145633</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>0.88416171408988409</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.95392216655409301</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="14">
+      <c r="J10" s="4">
+        <v>0.88802999999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.47512126305810498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.7204430480929841</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0.95020799999999994</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>0.88848725549521179</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.82572899999999994</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.91598507888563119</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0.95268864210409843</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>0.91002954399082203</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.95012186292738998</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="14">
+      <c r="J11" s="4">
+        <v>0.88114700000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.36903588288995898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>0.57570402574288171</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>0.95395699999999994</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>0.88116703765931403</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.75334999999999996</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>0.9037629050878464</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0.96037418551845521</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>0.91517086119653723</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.96034154243542103</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="14">
+      <c r="J12" s="4">
+        <v>0.88335900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.35767440129606498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.80863414755378926</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.94788799999999995</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.88185661127120862</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.82328599999999996</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.90504015885050282</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.95865830473299674</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>0.91903838074938204</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.95564028342075202</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="14">
+      <c r="J13" s="4">
+        <v>0.88925900000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.56394104887348295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.65936624897575014</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>0.95033799999999991</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.86789333825350645</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.87868099999999993</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.92237778636986822</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.96237567293552506</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0.93057500898318002</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.96069761418104804</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="14">
+      <c r="J14" s="4">
+        <v>0.87631400000000004</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.62587275150106503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>0.67179453986757509</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.94535599999999997</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>0.8799225709624422</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.79012499999999997</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>0.88946904016225503</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>0.95721680224916961</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>0.88734149200268531</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.95708135847610698</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="14">
+      <c r="J15" s="4">
+        <v>0.88539699999999999</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.62587275150106503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>0.73264290107247143</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>0.94507799999999997</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>0.88310553989175167</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.79780200000000001</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>0.88610396678299208</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0.95267646795670258</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>0.9075587016550386</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.95091619375605796</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="14">
+      <c r="J16" s="4">
+        <v>0.88532500000000003</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.58563531874293895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>0.55090912663042324</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>0.94005699999999992</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>0.85494435124324009</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0.74359799999999998</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>0.80174450931677332</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>0.94353467801468016</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>0.83706700698841163</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.94279002874494999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="14">
+      <c r="J17" s="4">
+        <v>0.84340599999999999</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.57113302052441595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>0.64555791491128123</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>0.92986799999999992</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>0.8297679427383875</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.63667399999999996</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0.80423858297067663</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>0.9381546557217354</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>0.85955843808128063</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>0.93768955850535496</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="14">
+      <c r="J18" s="4">
+        <v>0.81411500000000003</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.30224429685333798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>0.76616051221207138</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>0.91619499999999998</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0.84574194822014792</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0.83212299999999995</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0.86579411609674317</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>0.93370747775559038</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>0.8726500968811729</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.93183675931234899</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="14">
+      <c r="J19" s="4">
+        <v>0.85247499999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.70076352244269502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>0.5146096486583055</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>0.92880099999999999</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>0.84279179985614761</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.661798</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>0.79889069984531491</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>0.9444207256890812</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>0.69529912774586167</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>0.93834958102756605</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="14">
+      <c r="J20" s="4">
+        <v>0.85168100000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.50661070108650696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>0.64563431390338255</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>0.94514899999999991</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>0.88189842417453346</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0.73544500000000002</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>0.84522253677902104</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>0.94468723331686255</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>0.85823135049545574</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>0.94741375608158596</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="14">
+      <c r="J21" s="4">
+        <v>0.87754799999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.57351307839104104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>0.80583518741413473</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>0.96753</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>0.94920402321718078</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0.885934</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0.8882812698602166</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>0.96947616905418033</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>0.9546046574615582</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>0.96444344141712501</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="14">
+      <c r="J22" s="4">
+        <v>0.95587699999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.39429025647787402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>0.61117016815721059</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.94807199999999991</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.87272031183655929</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.69340099999999993</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>0.7917948418927252</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>0.95686993431285916</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>0.86517928290978807</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>0.95683095099520898</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="14">
+      <c r="J23" s="4">
+        <v>0.95587699999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.56166624614466498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>0.59115238700962447</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>0.97664999999999991</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>0.95026814245440883</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>0.91424299999999992</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>0.9436356527960158</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>0.97890005199876817</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>0.97498223482192203</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>0.97058941282361699</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.94117099999999998</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.78559935992855301</v>
       </c>
     </row>
   </sheetData>
@@ -55224,672 +55613,672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>0.45467700727310606</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15">
         <v>0.85760932929244327</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.63889499999999999</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0.86410366198526989</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>0.94614384179977773</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>0.89268000000000003</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.93739613403765498</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>0.77378090796731636</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15">
         <v>0.84631096766339375</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0.82998699999999992</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>0.89630694295600033</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>0.9462953140518372</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>0.87235273303457428</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.94148111774235999</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>0.46445795014895497</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16">
+      <c r="C4" s="16"/>
+      <c r="D4" s="15">
         <v>0.86152709657782833</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.82292500000000002</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>0.88545317082721209</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>0.95656891800005039</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>0.85750753390512513</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.95400371638671799</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.39292140174630541</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15">
         <v>0.9407126734313811</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.757409</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>0.94383963482809541</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0.97405899406883278</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>0.95984785479589474</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.96168808071656897</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>0.62928055481090839</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16">
+      <c r="C6" s="16"/>
+      <c r="D6" s="15">
         <v>0.91793976534457522</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.80387500000000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0.92896921462245274</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0.96910352626871121</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>0.93270105601200959</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.96562181420862103</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>0.57016375411552389</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16">
+      <c r="C7" s="16"/>
+      <c r="D7" s="15">
         <v>0.88603903006941731</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.75183099999999992</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.91494850042989639</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>0.96062799847200275</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>0.92396114173645738</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.95040230485161503</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.50557891601534388</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16">
+      <c r="C8" s="16"/>
+      <c r="D8" s="15">
         <v>0.85682598014060052</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>0.76013799999999998</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.88259069193221362</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0.92682063065304443</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>0.85285450364012028</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.93534418247143103</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0.30894598197969225</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16">
+      <c r="C9" s="16"/>
+      <c r="D9" s="15">
         <v>0.90175444447621211</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.86564999999999992</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.91848345218700422</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>0.96387285465769479</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>0.92397258604724353</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.955116906482678</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.7842833652559571</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16">
+      <c r="C10" s="16"/>
+      <c r="D10" s="15">
         <v>0.89709275806418753</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.81645899999999993</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.85128508884791654</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0.94408738464552999</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>0.85618536553645486</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.93838522199517405</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.61680212868293094</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16">
+      <c r="C11" s="16"/>
+      <c r="D11" s="15">
         <v>0.86707099595713943</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0.79399999999999993</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.90595830822705514</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0.94425777322714122</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>0.89772154181107422</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.94324393676985496</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>0.66723742223492322</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16">
+      <c r="C12" s="16"/>
+      <c r="D12" s="15">
         <v>0.87288936178664034</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0.76005699999999998</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>0.89394039024059557</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0.9529541320866628</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>0.90102454043077196</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.94393097818258398</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.66238339231507593</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.9420099999999999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.87338698897581091</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.78285099999999996</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.89521941607239031</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.95303543881914277</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>0.90702764431738558</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.95048253500304503</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.67145811351243523</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>0.94469099999999995</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.87097155923461089</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.84785599999999994</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.91093745679206195</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.95401288101928361</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>0.91698133542918137</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.95061475504803195</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>0.5526629916567164</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>0.93741999999999992</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>0.85829733865514213</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.76102300000000001</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>0.89363159358511213</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>0.94986570738734233</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>0.88508878267397706</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.94988576164146299</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>0.67945829932937973</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>0.93521199999999993</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>0.84618781445893509</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.77189999999999992</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>0.85146502564887927</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0.94560222936238436</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>0.87205669494842086</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.94185723591812998</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>0.4434105849738792</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>0.93058599999999991</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>0.83067662079358373</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0.71406899999999995</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>0.85262266451022206</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>0.94004921624095561</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>0.84358230281480107</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.93390080498693995</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>0.61280373401656374</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>0.92207699999999992</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>0.80686648704906949</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.64372200000000002</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0.8398317178728687</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>0.92730270667545855</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>0.83780436150253879</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>0.92729834453969395</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>0.72484190633529988</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>0.90648399999999996</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0.82132385414410813</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0.75965699999999992</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0.87827283916535659</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>0.923452895410522</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>0.86611172768050604</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.91649637478964696</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>0.48683000567651197</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>0.92806899999999992</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>0.82811667965085967</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.64807599999999999</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>0.84817643800723153</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>0.93773673961839643</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>0.88770265139675508</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>0.93753817212068302</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>0.4916144856437239</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>0.94287199999999993</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>0.8738780903676413</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>0.68714199999999992</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16">
+      <c r="F21" s="16"/>
+      <c r="G21" s="15">
         <v>0.94734210606273039</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>0.89448909657519049</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>0.94172745689457804</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>0.71982902867849619</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>0.95771899999999999</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>0.94003935609428924</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0.86585400000000001</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>0.92135142641702039</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>0.96509135321880357</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>0.95496250447232378</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>0.96488180979883198</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>0.57478887519721911</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.94626899999999992</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.8921110211399228</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.65300199999999997</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>0.88545494349652043</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>0.95052243460265906</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>0.86144078045840911</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>0.95045806903514196</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>0.9018746901117588</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16">
+      <c r="C24" s="16"/>
+      <c r="D24" s="15">
         <v>0.94408231059194037</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>0.87559100000000001</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>0.93201281713888118</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>0.97339904720926873</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>0.96800888391991113</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>0.93739613403765498</v>
       </c>
     </row>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DF9C6-9C2C-42A9-86CF-8686A296AAB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778DAC8-B62F-4224-9C1B-4E14819B62A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>alpha</t>
   </si>
@@ -13563,7 +13563,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$B$1:$B$1</c:f>
+              <c:f>Comparison_500kb!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13752,7 +13752,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$C$1:$C$1</c:f>
+              <c:f>Comparison_500kb!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13905,7 +13905,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$D$1:$D$1</c:f>
+              <c:f>Comparison_500kb!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14094,7 +14094,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$E$1:$E$1</c:f>
+              <c:f>Comparison_500kb!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14283,7 +14283,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$F$1:$F$1</c:f>
+              <c:f>Comparison_500kb!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14469,7 +14469,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$G$1:$G$1</c:f>
+              <c:f>Comparison_500kb!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14658,7 +14658,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$H$1:$H$1</c:f>
+              <c:f>Comparison_500kb!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14847,7 +14847,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$I$1:$I$1</c:f>
+              <c:f>Comparison_500kb!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15028,6 +15028,366 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D098-4AC5-9B12-95EC5C7BB564}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison_500kb!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison_500kb!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.83156399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84358299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85700200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93101500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89559699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88115299999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81488400000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89937800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86324000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.855819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87697899999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87285900000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87237699999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85417100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82137499999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80316699999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82351799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82753699999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87077000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94541799999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89844100000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9EC-495F-B8AB-3B7534734AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison_500kb!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOGEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparison_500kb!$K$2:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.57109560687524596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54117985207863495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37887235382845202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35648018072988003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65743107399945999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54168439772632804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41635071730659601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33903148228484697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23031485732603499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36395456380651298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32570165841577597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.446384233263661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57954508175544905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21588912608647801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57052844314427498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57011729795718202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41454036603238098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25099682849361898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33891900113235002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33082164833689298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47911019195395099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48392826733571398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81286126647975099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9EC-495F-B8AB-3B7534734AF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25453,10 +25813,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38103</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5624145" cy="3085368"/>
     <xdr:graphicFrame macro="">
@@ -54746,7 +55106,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55603,16 +55963,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -55640,8 +56002,14 @@
       <c r="I1" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -55667,8 +56035,14 @@
       <c r="I2" s="4">
         <v>0.93739613403765498</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="4">
+        <v>0.83156399999999997</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.57109560687524596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -55694,8 +56068,14 @@
       <c r="I3" s="4">
         <v>0.94148111774235999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="4">
+        <v>0.84358299999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.54117985207863495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -55721,8 +56101,14 @@
       <c r="I4" s="4">
         <v>0.95400371638671799</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="J4" s="15">
+        <v>0.85700200000000004</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.37887235382845202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -55748,8 +56134,14 @@
       <c r="I5" s="4">
         <v>0.96168808071656897</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="15">
+        <v>0.93101500000000004</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.35648018072988003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -55775,8 +56167,14 @@
       <c r="I6" s="4">
         <v>0.96562181420862103</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="15">
+        <v>0.89559699999999998</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.65743107399945999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -55802,8 +56200,14 @@
       <c r="I7" s="4">
         <v>0.95040230485161503</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+      <c r="J7" s="15">
+        <v>0.88115299999999996</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.54168439772632804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -55829,8 +56233,14 @@
       <c r="I8" s="4">
         <v>0.93534418247143103</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="15">
+        <v>0.81488400000000005</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.41635071730659601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -55856,8 +56266,14 @@
       <c r="I9" s="4">
         <v>0.955116906482678</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="15">
+        <v>0.89937800000000001</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.33903148228484697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -55883,8 +56299,14 @@
       <c r="I10" s="4">
         <v>0.93838522199517405</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="4">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.23031485732603499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -55910,8 +56332,14 @@
       <c r="I11" s="4">
         <v>0.94324393676985496</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="15">
+        <v>0.855819</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.36395456380651298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -55937,8 +56365,14 @@
       <c r="I12" s="4">
         <v>0.94393097818258398</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="15">
+        <v>0.87697899999999995</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.32570165841577597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -55966,8 +56400,14 @@
       <c r="I13" s="4">
         <v>0.95048253500304503</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+      <c r="J13" s="4">
+        <v>0.87285900000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.446384233263661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -55995,8 +56435,14 @@
       <c r="I14" s="4">
         <v>0.95061475504803195</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="15">
+        <v>0.87237699999999996</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.57954508175544905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -56024,8 +56470,14 @@
       <c r="I15" s="4">
         <v>0.94988576164146299</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
+      <c r="J15" s="15">
+        <v>0.85417100000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.21588912608647801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -56053,8 +56505,14 @@
       <c r="I16" s="4">
         <v>0.94185723591812998</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="15">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.57052844314427498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -56082,8 +56540,14 @@
       <c r="I17" s="4">
         <v>0.93390080498693995</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="4">
+        <v>0.82137499999999997</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.57011729795718202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -56111,8 +56575,14 @@
       <c r="I18" s="4">
         <v>0.92729834453969395</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
+      <c r="J18" s="15">
+        <v>0.80316699999999996</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.41454036603238098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -56140,8 +56610,14 @@
       <c r="I19" s="4">
         <v>0.91649637478964696</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="4">
+        <v>0.82351799999999997</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.25099682849361898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -56169,8 +56645,14 @@
       <c r="I20" s="4">
         <v>0.93753817212068302</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="4">
+        <v>0.82753699999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.33891900113235002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -56196,8 +56678,14 @@
       <c r="I21" s="4">
         <v>0.94172745689457804</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="J21" s="4">
+        <v>0.87077000000000004</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.33082164833689298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -56225,8 +56713,14 @@
       <c r="I22" s="4">
         <v>0.96488180979883198</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
+      <c r="J22" s="4">
+        <v>0.94541799999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.47911019195395099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -56254,8 +56748,14 @@
       <c r="I23" s="4">
         <v>0.95045806903514196</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
+      <c r="J23" s="4">
+        <v>0.89844100000000005</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.48392826733571398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -56280,6 +56780,12 @@
       </c>
       <c r="I24" s="4">
         <v>0.93739613403765498</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.81286126647975099</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778DAC8-B62F-4224-9C1B-4E14819B62A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E93F60-98DB-4E12-A5A9-429EAE9413E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E93F60-98DB-4E12-A5A9-429EAE9413E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62220DF-E7C1-4CA1-9EA5-4C0FE8615CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="Coeffecient_test" sheetId="5" r:id="rId5"/>
     <sheet name="consistency-1MB" sheetId="6" r:id="rId6"/>
     <sheet name="consistency-500kb" sheetId="7" r:id="rId7"/>
-    <sheet name="Comparison_1MB" sheetId="8" r:id="rId8"/>
-    <sheet name="Comparison_500kb" sheetId="9" r:id="rId9"/>
+    <sheet name="Comparison_1MB 5sc" sheetId="8" r:id="rId8"/>
+    <sheet name="Comparison_500kb 5sc" sheetId="9" r:id="rId9"/>
+    <sheet name="Comparison 1MB 15sc" sheetId="10" r:id="rId10"/>
+    <sheet name="Comparison 500kb 15sc" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'consistency-1MB'!$K$1</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>alpha</t>
   </si>
@@ -12109,7 +12111,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$B$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12132,7 +12134,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$B$2:$B$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12220,7 +12222,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$C$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12243,7 +12245,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$C$2:$C$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12331,7 +12333,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$D$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12354,7 +12356,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$D$2:$D$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12442,7 +12444,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$E$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12465,7 +12467,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$E$2:$E$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12553,7 +12555,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$F$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12576,7 +12578,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$F$2:$F$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12664,7 +12666,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$G$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12687,7 +12689,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$G$2:$G$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12775,7 +12777,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$H$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12798,7 +12800,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$H$2:$H$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12886,7 +12888,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$I$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12909,7 +12911,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$I$2:$I$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$I$2:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12997,7 +12999,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$J$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13011,7 +13013,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$J$2:$J$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$J$2:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13099,7 +13101,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_1MB!$K$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13113,7 +13115,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_1MB!$K$2:$K$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13563,7 +13565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$B$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13586,7 +13588,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13664,7 +13666,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$B$2:$B$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13752,7 +13754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$C$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13775,7 +13777,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13853,7 +13855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$C$2:$C$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13905,7 +13907,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$D$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13928,7 +13930,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14006,7 +14008,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$D$2:$D$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14094,7 +14096,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$E$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14117,7 +14119,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14195,7 +14197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$E$2:$E$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14283,7 +14285,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$F$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14306,7 +14308,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14384,7 +14386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$F$2:$F$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14469,7 +14471,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$G$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14492,7 +14494,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14570,7 +14572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$G$2:$G$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14658,7 +14660,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$H$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14681,7 +14683,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14759,7 +14761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$H$2:$H$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14847,7 +14849,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$I$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14870,7 +14872,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14948,7 +14950,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$I$2:$I$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$I$2:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15036,7 +15038,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$J$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15050,7 +15052,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15128,7 +15130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$J$2:$J$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$J$2:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15216,7 +15218,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparison_500kb!$K$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15230,7 +15232,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Comparison_500kb!$A$2:$A$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15308,7 +15310,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison_500kb!$K$2:$K$25</c:f>
+              <c:f>'Comparison_500kb 5sc'!$K$2:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -15684,6 +15686,2985 @@
           </a:solidFill>
           <a:latin typeface="Calibri"/>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GM12878 1Mb SCC Comparison of Methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.74691075439370036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75998856583345109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78408409791692957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7585622539253124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81324635575640292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41247052796331363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6842996030290025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8806202796884649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74934798994558216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7204430480929841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57570402574288171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80863414755378926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65936624897575014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67179453986757509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73264290107247143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55090912663042324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64555791491128123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76616051221207138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5146096486583055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64563431390338255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80583518741413473</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61117016815721059</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59115238700962447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChromSDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.94314699999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93279400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94905399999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97650300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96630199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95656399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93394499999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96462799999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96462799999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95020799999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95395699999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94788799999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95033799999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94535599999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94507799999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94005699999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92986799999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91619499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92880099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94514899999999991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96753</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94807199999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97664999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pastis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.87192717401248487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86020931840125403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87835737432932348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94928810945835362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92808136088861681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89371080630055189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86900403544380511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9170807562639588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91458712413482923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88848725549521179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88116703765931403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88185661127120862</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86789333825350645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8799225709624422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88310553989175167</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85494435124324009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8297679427383875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84574194822014792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84279179985614761</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88189842417453346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94920402321718078</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87272031183655929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95026814245440883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ShRec3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.74756999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85336299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84968599999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83852099999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79009099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79592299999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89051999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83960099999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82572899999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75334999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82328599999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87868099999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79012499999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79780200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74359799999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63667399999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83212299999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.661798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73544500000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.885934</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69340099999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91424299999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Chromosome3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.86871057184859557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90294011297576793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89829182804964836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94459705130790994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93451604381561482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92647261456755514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89331140610130544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9351393942998284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84803003457680948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91598507888563119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9037629050878464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90504015885050282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92237778636986822</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88946904016225503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88610396678299208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80174450931677332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80423858297067663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86579411609674317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79889069984531491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84522253677902104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8882812698602166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7917948418927252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9436356527960158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3DMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.95654361697866108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95634763935278677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96663264567937413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97796248604076474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97511149115969653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96546029083373008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94042477609969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96920542394103792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95324844493145633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95268864210409843</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96037418551845521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95865830473299674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96237567293552506</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95721680224916961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95267646795670258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94353467801468016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9381546557217354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93370747775559038</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9444207256890812</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94468723331686255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96947616905418033</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95686993431285916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97890005199876817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LorDG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.89554484397116874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89291791976640034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8460090655027841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96495898219456622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93782653706856478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92920433212732456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84855818890220558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94993089026019473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88416171408988409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91002954399082203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91517086119653723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91903838074938204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93057500898318002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88734149200268531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9075587016550386</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83706700698841163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85955843808128063</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8726500968811729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69529912774586167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85823135049545574</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9546046574615582</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86517928290978807</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97498223482192203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParticleChromo3D </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.95656332884058404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95623577659568304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96638694920969503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97778931733558805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97531973298260699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95350949918152295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93771300726682705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96901211541178001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95370152240455996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.951574294115201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96020853703088904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95864514115889898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96119105970256002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95719553078333597</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95233204724190901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93823387402945901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93809174009212104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93243284960832995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94421108021053102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94455414044838004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97078037045142296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95679486168905303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97750719344482495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.86346400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85942600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87469200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95001400000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92203500000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89990099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84123999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.917462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88114700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88335900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88925900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87631400000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88539699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88532500000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84340599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81411500000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85247499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85168100000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87754799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94117099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 1MB 15sc'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOGEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 1MB 15sc'!$K$2:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.54938073595508796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68952073253407298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26792235788077701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79542309559473401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64313827773716004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60296102416430797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57485510979896104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36424311472329401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47512126305810498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36903588288995898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35767440129606498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56394104887348295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62587275150106503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62587275150106503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58563531874293895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57113302052441595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30224429685333798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70076352244269502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50661070108650696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57351307839104104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39429025647787402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56166624614466498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78559935992855301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C22C-4AD6-AA50-B08623F0B2FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1751214031"/>
+        <c:axId val="1751215279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1751214031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chromosome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751215279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1751215279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SCC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751214031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GM12878 500kb SCC Comparison of Methods</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HSA </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.45467700727310606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77378090796731636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46445795014895497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39292140174630541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62928055481090839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57016375411552389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50557891601534388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30894598197969225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7842833652559571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61680212868293094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66723742223492322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66238339231507593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67145811351243523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5526629916567164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67945829932937973</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4434105849738792</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61280373401656374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72484190633529988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48683000567651197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4916144856437239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71982902867849619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57478887519721911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9018746901117588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChromSDE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="11">
+                  <c:v>0.9420099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94469099999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93741999999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93521199999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93058599999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92207699999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90648399999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92806899999999992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94287199999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95771899999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94626899999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pastis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.85760932929244327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84631096766339375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86152709657782833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9407126734313811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91793976534457522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88603903006941731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85682598014060052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90175444447621211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89709275806418753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86707099595713943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87288936178664034</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87338698897581091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87097155923461089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85829733865514213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84618781445893509</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83067662079358373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80686648704906949</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82132385414410813</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82811667965085967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8738780903676413</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94003935609428924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8921110211399228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94408231059194037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ShRec3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.63889499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82998699999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82292500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.757409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80387500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75183099999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76013799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86564999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81645899999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76005699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78285099999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84785599999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76102300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77189999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71406899999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64372200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75965699999999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64807599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68714199999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86585400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65300199999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87559100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Chromosome3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.86410366198526989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89630694295600033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88545317082721209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94383963482809541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92896921462245274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91494850042989639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88259069193221362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91848345218700422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85128508884791654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90595830822705514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89394039024059557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89521941607239031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91093745679206195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89363159358511213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85146502564887927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85262266451022206</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8398317178728687</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87827283916535659</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84817643800723153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92135142641702039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88545494349652043</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93201281713888118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3DMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.94614384179977773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9462953140518372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95656891800005039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97405899406883278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96910352626871121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96062799847200275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92682063065304443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96387285465769479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94408738464552999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94425777322714122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9529541320866628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95303543881914277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95401288101928361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94986570738734233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94560222936238436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94004921624095561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92730270667545855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.923452895410522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93773673961839643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94734210606273039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96509135321880357</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95052243460265906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97339904720926873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LorDG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.89268000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87235273303457428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85750753390512513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95984785479589474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93270105601200959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92396114173645738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85285450364012028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92397258604724353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85618536553645486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89772154181107422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90102454043077196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90702764431738558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91698133542918137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88508878267397706</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87205669494842086</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84358230281480107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83780436150253879</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86611172768050604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88770265139675508</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89448909657519049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95496250447232378</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86144078045840911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96800888391991113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParticleChromo3D </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.93796178123177099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94593962644091301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95657698169655503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97302178697451203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96902121568562904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95620128873163901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93686817032764003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96378408486238298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93655063505696701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94541254266360597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95242054936726095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95179223556287196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95461013205323098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94993513840186405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94427910109011304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93908105560612998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92733414741314502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92367640879312196</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93040451787945599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93921930146045296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96376701663500197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95109060629803299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97208611504371301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.83156399999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84358299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85700200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93101500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89559699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88115299999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81488400000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89937800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86324000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.855819</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87697899999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87285900000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87237699999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85417100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82137499999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80316699999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82351799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82753699999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87077000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94541799999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89844100000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93030000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison 500kb 15sc'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MOGEN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison 500kb 15sc'!$K$2:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.57109560687524596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54117985207863495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37887235382845202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35648018072988003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65743107399945999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54168439772632804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41635071730659601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33903148228484697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23031485732603499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36395456380651298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32570165841577597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.446384233263661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57954508175544905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21588912608647801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57052844314427498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57011729795718202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41454036603238098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25099682849361898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33891900113235002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33082164833689298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47911019195395099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48392826733571398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81286126647975099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-75D3-4247-B99D-6DA1DFDE736A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756532735"/>
+        <c:axId val="1756540223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1756532735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chromosome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756540223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756540223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SCC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756532735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -18677,6 +21658,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20565,6 +23626,1038 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -24691,6 +28784,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E43219-DF5C-4A53-9CCE-90B2D9896CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913E3654-B356-4488-B1E8-AB35FCFF52FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -26444,12 +30619,1698 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA276C-B6E5-4C94-AF86-174D3CC1BBA6}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.74691075439370036</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.94314699999999996</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.87192717401248487</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.74756999999999996</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.86871057184859557</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.95654361697866108</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.89554484397116874</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.95656332884058404</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.86346400000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.54938073595508796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.75998856583345109</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.93279400000000001</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.86020931840125403</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.85336299999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.90294011297576793</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.95634763935278677</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.89291791976640034</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.95623577659568304</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.85942600000000002</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.68952073253407298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.78408409791692957</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.94905399999999995</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.87835737432932348</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.84968599999999994</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.89829182804964836</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.96663264567937413</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.8460090655027841</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.96638694920969503</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.87469200000000003</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.26792235788077701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.7585622539253124</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.97650300000000001</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.94928810945835362</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.83055000000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.94459705130790994</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.97796248604076474</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.96495898219456622</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.97778931733558805</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.95001400000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.79542309559473401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.81324635575640292</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.96630199999999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.92808136088861681</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.83852099999999996</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.93451604381561482</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.97511149115969653</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.93782653706856478</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.97531973298260699</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.92203500000000005</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.64313827773716004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.41247052796331363</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.95656399999999997</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.89371080630055189</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.79009099999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.92647261456755514</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.96546029083373008</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.92920433212732456</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.95350949918152295</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.89990099999999995</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.60296102416430797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.6842996030290025</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.93394499999999991</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.86900403544380511</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.79592299999999994</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.89331140610130544</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.94042477609969</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.84855818890220558</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.93771300726682705</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.84123999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.57485510979896104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.8806202796884649</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.96462799999999993</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.9170807562639588</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.89051999999999998</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.9351393942998284</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.96920542394103792</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.94993089026019473</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.96901211541178001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.917462</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.36424311472329401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.74934798994558216</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.96462799999999993</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.91458712413482923</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.83960099999999993</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.84803003457680948</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.95324844493145633</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.88416171408988409</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.95370152240455996</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.88802999999999999</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.47512126305810498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.7204430480929841</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.95020799999999994</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.88848725549521179</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.82572899999999994</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.91598507888563119</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.95268864210409843</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.91002954399082203</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.951574294115201</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.88114700000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.36903588288995898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.57570402574288171</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.95395699999999994</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.88116703765931403</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.75334999999999996</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.9037629050878464</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.96037418551845521</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.91517086119653723</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.96020853703088904</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.88335900000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.35767440129606498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.80863414755378926</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.94788799999999995</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.88185661127120862</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.82328599999999996</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.90504015885050282</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.95865830473299674</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.91903838074938204</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.95864514115889898</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.88925900000000002</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.56394104887348295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.65936624897575014</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.95033799999999991</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.86789333825350645</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.87868099999999993</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.92237778636986822</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.96237567293552506</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0.93057500898318002</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.96119105970256002</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.87631400000000004</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.62587275150106503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.67179453986757509</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.94535599999999997</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.8799225709624422</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.79012499999999997</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.88946904016225503</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.95721680224916961</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.88734149200268531</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.95719553078333597</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.88539699999999999</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.62587275150106503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.73264290107247143</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.94507799999999997</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.88310553989175167</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.79780200000000001</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.88610396678299208</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.95267646795670258</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.9075587016550386</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.95233204724190901</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.88532500000000003</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.58563531874293895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.55090912663042324</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.94005699999999992</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.85494435124324009</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.74359799999999998</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.80174450931677332</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.94353467801468016</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.83706700698841163</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.93823387402945901</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.84340599999999999</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.57113302052441595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.64555791491128123</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.92986799999999992</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.8297679427383875</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.63667399999999996</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.80423858297067663</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.9381546557217354</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.85955843808128063</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.93809174009212104</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.81411500000000003</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.30224429685333798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.76616051221207138</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.91619499999999998</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.84574194822014792</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.83212299999999995</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.86579411609674317</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.93370747775559038</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.8726500968811729</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.93243284960832995</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.85247499999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.70076352244269502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.5146096486583055</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.92880099999999999</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.84279179985614761</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.661798</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.79889069984531491</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.9444207256890812</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.69529912774586167</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.94421108021053102</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.85168100000000002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.50661070108650696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.64563431390338255</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.94514899999999991</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.88189842417453346</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.73544500000000002</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.84522253677902104</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.94468723331686255</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.85823135049545574</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.94455414044838004</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.87754799999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.57351307839104104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.80583518741413473</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.96753</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.94920402321718078</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.885934</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.8882812698602166</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.96947616905418033</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.9546046574615582</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.97078037045142296</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.95587699999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.39429025647787402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.61117016815721059</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.94807199999999991</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.87272031183655929</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.69340099999999993</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.7917948418927252</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.95686993431285916</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.86517928290978807</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.95679486168905303</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.95587699999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.56166624614466498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0.59115238700962447</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.97664999999999991</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.95026814245440883</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.91424299999999992</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.9436356527960158</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.97890005199876817</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.97498223482192203</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.97750719344482495</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.94117099999999998</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.78559935992855301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991350A-CEE1-47ED-8B05-07C61E800DE9}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.45467700727310606</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15">
+        <v>0.85760932929244327</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.63889499999999999</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.86410366198526989</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.94614384179977773</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.89268000000000003</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.93796178123177099</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.83156399999999997</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.57109560687524596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.77378090796731636</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15">
+        <v>0.84631096766339375</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.82998699999999992</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.89630694295600033</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.9462953140518372</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.87235273303457428</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.94593962644091301</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.84358299999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.54117985207863495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.46445795014895497</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15">
+        <v>0.86152709657782833</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.82292500000000002</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.88545317082721209</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.95656891800005039</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.85750753390512513</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.95657698169655503</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.85700200000000004</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.37887235382845202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.39292140174630541</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15">
+        <v>0.9407126734313811</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.757409</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.94383963482809541</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.97405899406883278</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.95984785479589474</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.97302178697451203</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.93101500000000004</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.35648018072988003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.62928055481090839</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15">
+        <v>0.91793976534457522</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.80387500000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.92896921462245274</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.96910352626871121</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.93270105601200959</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.96902121568562904</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.89559699999999998</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.65743107399945999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.57016375411552389</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15">
+        <v>0.88603903006941731</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.75183099999999992</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.91494850042989639</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.96062799847200275</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.92396114173645738</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.95620128873163901</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.88115299999999996</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.54168439772632804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.50557891601534388</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15">
+        <v>0.85682598014060052</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.76013799999999998</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.88259069193221362</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.92682063065304443</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.85285450364012028</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.93686817032764003</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.81488400000000005</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.41635071730659601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.30894598197969225</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15">
+        <v>0.90175444447621211</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.86564999999999992</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.91848345218700422</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.96387285465769479</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.92397258604724353</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.96378408486238298</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.89937800000000001</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.33903148228484697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.7842833652559571</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15">
+        <v>0.89709275806418753</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.81645899999999993</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.85128508884791654</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.94408738464552999</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.85618536553645486</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.93655063505696701</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.23031485732603499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.61680212868293094</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15">
+        <v>0.86707099595713943</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.79399999999999993</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.90595830822705514</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.94425777322714122</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.89772154181107422</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.94541254266360597</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.855819</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.36395456380651298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.66723742223492322</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="15">
+        <v>0.87288936178664034</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.76005699999999998</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.89394039024059557</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.9529541320866628</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.90102454043077196</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.95242054936726095</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.87697899999999995</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.32570165841577597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.66238339231507593</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.9420099999999999</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.87338698897581091</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.78285099999999996</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.89521941607239031</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.95303543881914277</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.90702764431738558</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.95179223556287196</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.87285900000000005</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.446384233263661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.67145811351243523</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.94469099999999995</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.87097155923461089</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.84785599999999994</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.91093745679206195</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.95401288101928361</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.91698133542918137</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.95461013205323098</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.87237699999999996</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.57954508175544905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.5526629916567164</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.93741999999999992</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.85829733865514213</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.76102300000000001</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.89363159358511213</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.94986570738734233</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.88508878267397706</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.94993513840186405</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.85417100000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.21588912608647801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.67945829932937973</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.93521199999999993</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.84618781445893509</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.77189999999999992</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.85146502564887927</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.94560222936238436</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.87205669494842086</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.94427910109011304</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.57052844314427498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.4434105849738792</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.93058599999999991</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.83067662079358373</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.71406899999999995</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.85262266451022206</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.94004921624095561</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.84358230281480107</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.93908105560612998</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.82137499999999997</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.57011729795718202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.61280373401656374</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.92207699999999992</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.80686648704906949</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.64372200000000002</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.8398317178728687</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.92730270667545855</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.83780436150253879</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.92733414741314502</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.80316699999999996</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.41454036603238098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.72484190633529988</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.90648399999999996</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.82132385414410813</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.75965699999999992</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.87827283916535659</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.923452895410522</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.86611172768050604</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.92367640879312196</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.82351799999999997</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.25099682849361898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.48683000567651197</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.92806899999999992</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.82811667965085967</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.64807599999999999</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.84817643800723153</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.93773673961839643</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.88770265139675508</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.93040451787945599</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.82753699999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.33891900113235002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.4916144856437239</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.94287199999999993</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.8738780903676413</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.68714199999999992</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15">
+        <v>0.94734210606273039</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.89448909657519049</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.93921930146045296</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.87077000000000004</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.33082164833689298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.71982902867849619</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.95771899999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.94003935609428924</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.86585400000000001</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.92135142641702039</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.96509135321880357</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.95496250447232378</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.96376701663500197</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.94541799999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.47911019195395099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.57478887519721911</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.94626899999999992</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.8921110211399228</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.65300199999999997</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.88545494349652043</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0.95052243460265906</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.86144078045840911</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.95109060629803299</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.89844100000000005</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.48392826733571398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0.9018746901117588</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15">
+        <v>0.94408231059194037</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.87559100000000001</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.93201281713888118</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.97339904720926873</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.96800888391991113</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.97208611504371301</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.81286126647975099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N58" sqref="N57:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55105,8 +60966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55965,8 +61826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Results/ResultsTest1.xlsx
+++ b/Results/ResultsTest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ParticleChromo3D\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62220DF-E7C1-4CA1-9EA5-4C0FE8615CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EF1929-FD43-4A56-8390-FE4EE357F736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2175" windowWidth="25215" windowHeight="15435" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="4335" windowWidth="25215" windowHeight="15435" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameterChoiceForBestAlpha" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,6 @@
     <sheet name="consistency-500kb" sheetId="7" r:id="rId7"/>
     <sheet name="Comparison_1MB 5sc" sheetId="8" r:id="rId8"/>
     <sheet name="Comparison_500kb 5sc" sheetId="9" r:id="rId9"/>
-    <sheet name="Comparison 1MB 15sc" sheetId="10" r:id="rId10"/>
-    <sheet name="Comparison 500kb 15sc" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'consistency-1MB'!$K$1</definedName>
@@ -69,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
   <si>
     <t>alpha</t>
   </si>
@@ -220,6 +218,15 @@
   <si>
     <t>MOGEN</t>
   </si>
+  <si>
+    <t>SC=5</t>
+  </si>
+  <si>
+    <t>SC=10</t>
+  </si>
+  <si>
+    <t>SC=15</t>
+  </si>
 </sst>
 </file>
 
@@ -297,18 +304,17 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +337,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,7 +426,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,12 +453,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,6 +474,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -12888,7 +12904,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_1MB 5sc'!$I$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12911,7 +12927,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison_1MB 5sc'!$I$2:$I$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$K$2:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -12999,7 +13015,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_1MB 5sc'!$J$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13013,7 +13029,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison_1MB 5sc'!$J$2:$J$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$I$2:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -13101,7 +13117,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_1MB 5sc'!$K$1</c:f>
+              <c:f>'Comparison_1MB 5sc'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13115,7 +13131,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison_1MB 5sc'!$K$2:$K$24</c:f>
+              <c:f>'Comparison_1MB 5sc'!$J$2:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -14849,11 +14865,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_500kb 5sc'!$I$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ParticleChromo3D </c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14950,78 +14966,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison_500kb 5sc'!$I$2:$I$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.93739613403765498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94148111774235999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95400371638671799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96168808071656897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96562181420862103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95040230485161503</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93534418247143103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.955116906482678</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93838522199517405</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94324393676985496</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94393097818258398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95048253500304503</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95061475504803195</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94988576164146299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94185723591812998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93390080498693995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.92729834453969395</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91649637478964696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93753817212068302</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94172745689457804</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96488180979883198</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95045806903514196</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93739613403765498</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15038,7 +14988,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_500kb 5sc'!$J$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15130,7 +15080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparison_500kb 5sc'!$J$2:$J$24</c:f>
+              <c:f>'Comparison_500kb 5sc'!$I$2:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15218,7 +15168,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparison_500kb 5sc'!$K$1</c:f>
+              <c:f>'Comparison_500kb 5sc'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15315,73 +15265,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.57109560687524596</c:v>
+                  <c:v>0.93739613403765498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54117985207863495</c:v>
+                  <c:v>0.94148111774235999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37887235382845202</c:v>
+                  <c:v>0.95400371638671799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35648018072988003</c:v>
+                  <c:v>0.96168808071656897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65743107399945999</c:v>
+                  <c:v>0.96562181420862103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54168439772632804</c:v>
+                  <c:v>0.95040230485161503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41635071730659601</c:v>
+                  <c:v>0.93534418247143103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33903148228484697</c:v>
+                  <c:v>0.955116906482678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23031485732603499</c:v>
+                  <c:v>0.93838522199517405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36395456380651298</c:v>
+                  <c:v>0.94324393676985496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32570165841577597</c:v>
+                  <c:v>0.94393097818258398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.446384233263661</c:v>
+                  <c:v>0.95048253500304503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57954508175544905</c:v>
+                  <c:v>0.95061475504803195</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21588912608647801</c:v>
+                  <c:v>0.94988576164146299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57052844314427498</c:v>
+                  <c:v>0.94185723591812998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57011729795718202</c:v>
+                  <c:v>0.93390080498693995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41454036603238098</c:v>
+                  <c:v>0.92729834453969395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25099682849361898</c:v>
+                  <c:v>0.91649637478964696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33891900113235002</c:v>
+                  <c:v>0.93753817212068302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.33082164833689298</c:v>
+                  <c:v>0.94172745689457804</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47911019195395099</c:v>
+                  <c:v>0.96488180979883198</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48392826733571398</c:v>
+                  <c:v>0.95045806903514196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.81286126647975099</c:v>
+                  <c:v>0.93739613403765498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15686,2985 +15639,6 @@
           </a:solidFill>
           <a:latin typeface="Calibri"/>
         </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>GM12878 1Mb SCC Comparison of Methods</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HSA </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.74691075439370036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75998856583345109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78408409791692957</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7585622539253124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81324635575640292</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41247052796331363</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6842996030290025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8806202796884649</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74934798994558216</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7204430480929841</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57570402574288171</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.80863414755378926</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65936624897575014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.67179453986757509</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73264290107247143</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.55090912663042324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.64555791491128123</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76616051221207138</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5146096486583055</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.64563431390338255</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.80583518741413473</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.61117016815721059</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.59115238700962447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ChromSDE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$C$2:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.94314699999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93279400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94905399999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97650300000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96630199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95656399999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93394499999999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96462799999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96462799999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95020799999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95395699999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94788799999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95033799999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94535599999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94507799999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94005699999999992</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.92986799999999992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.91619499999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.92880099999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94514899999999991</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96753</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.94807199999999991</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97664999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pastis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.87192717401248487</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86020931840125403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87835737432932348</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94928810945835362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92808136088861681</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89371080630055189</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86900403544380511</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9170807562639588</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91458712413482923</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88848725549521179</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88116703765931403</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88185661127120862</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.86789333825350645</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8799225709624422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.88310553989175167</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85494435124324009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8297679427383875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.84574194822014792</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84279179985614761</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.88189842417453346</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94920402321718078</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.87272031183655929</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.95026814245440883</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ShRec3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$E$2:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.74756999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85336299999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84968599999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83852099999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79009099999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79592299999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89051999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83960099999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82572899999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75334999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82328599999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87868099999999993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.79012499999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79780200000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.74359799999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.63667399999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83212299999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.661798</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.73544500000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.885934</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.69340099999999993</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.91424299999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Chromosome3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$F$2:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.86871057184859557</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90294011297576793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89829182804964836</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94459705130790994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93451604381561482</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92647261456755514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89331140610130544</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9351393942998284</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84803003457680948</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91598507888563119</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9037629050878464</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90504015885050282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92237778636986822</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88946904016225503</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.88610396678299208</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80174450931677332</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80423858297067663</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.86579411609674317</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.79889069984531491</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.84522253677902104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.8882812698602166</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.7917948418927252</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9436356527960158</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3DMax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$G$2:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.95654361697866108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95634763935278677</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96663264567937413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97796248604076474</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97511149115969653</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96546029083373008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94042477609969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96920542394103792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95324844493145633</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95268864210409843</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96037418551845521</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95865830473299674</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96237567293552506</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95721680224916961</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95267646795670258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94353467801468016</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9381546557217354</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93370747775559038</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9444207256890812</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94468723331686255</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96947616905418033</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95686993431285916</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97890005199876817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LorDG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.89554484397116874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89291791976640034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8460090655027841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96495898219456622</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93782653706856478</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92920433212732456</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84855818890220558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94993089026019473</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88416171408988409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91002954399082203</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.91517086119653723</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91903838074938204</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93057500898318002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88734149200268531</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9075587016550386</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83706700698841163</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85955843808128063</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8726500968811729</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.69529912774586167</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.85823135049545574</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9546046574615582</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86517928290978807</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97498223482192203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ParticleChromo3D </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$I$2:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.95656332884058404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95623577659568304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96638694920969503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97778931733558805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97531973298260699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95350949918152295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93771300726682705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96901211541178001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95370152240455996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.951574294115201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96020853703088904</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95864514115889898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96119105970256002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95719553078333597</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95233204724190901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93823387402945901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.93809174009212104</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93243284960832995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.94421108021053102</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94455414044838004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.97078037045142296</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95679486168905303</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97750719344482495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GEM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$J$2:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.86346400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85942600000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87469200000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95001400000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92203500000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89990099999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84123999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.917462</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88802999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88114700000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88335900000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88925900000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87631400000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88539699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.88532500000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84340599999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.81411500000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.85247499999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.85168100000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.87754799999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95587699999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95587699999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.94117099999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 1MB 15sc'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MOGEN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 1MB 15sc'!$K$2:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.54938073595508796</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68952073253407298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26792235788077701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79542309559473401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64313827773716004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60296102416430797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57485510979896104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36424311472329401</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47512126305810498</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36903588288995898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35767440129606498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56394104887348295</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62587275150106503</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62587275150106503</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58563531874293895</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57113302052441595</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.30224429685333798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.70076352244269502</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.50661070108650696</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.57351307839104104</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.39429025647787402</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.56166624614466498</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.78559935992855301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-C22C-4AD6-AA50-B08623F0B2FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1751214031"/>
-        <c:axId val="1751215279"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1751214031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Chromosome</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1751215279"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1751215279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SCC</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1751214031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>GM12878 500kb SCC Comparison of Methods</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HSA </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.45467700727310606</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77378090796731636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46445795014895497</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39292140174630541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62928055481090839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57016375411552389</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50557891601534388</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30894598197969225</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7842833652559571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61680212868293094</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66723742223492322</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66238339231507593</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67145811351243523</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5526629916567164</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.67945829932937973</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4434105849738792</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.61280373401656374</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.72484190633529988</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.48683000567651197</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.4916144856437239</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71982902867849619</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.57478887519721911</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9018746901117588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ChromSDE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$C$2:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="11">
-                  <c:v>0.9420099999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.94469099999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93741999999999992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93521199999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93058599999999991</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.92207699999999992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.90648399999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.92806899999999992</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94287199999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95771899999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.94626899999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pastis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$D$2:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.85760932929244327</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84631096766339375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86152709657782833</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9407126734313811</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91793976534457522</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88603903006941731</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85682598014060052</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90175444447621211</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89709275806418753</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86707099595713943</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87288936178664034</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.87338698897581091</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87097155923461089</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85829733865514213</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84618781445893509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83067662079358373</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80686648704906949</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.82132385414410813</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82811667965085967</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.8738780903676413</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94003935609428924</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.8921110211399228</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.94408231059194037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ShRec3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$E$2:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.63889499999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.82998699999999992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82292500000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.757409</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80387500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75183099999999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76013799999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.86564999999999992</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81645899999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79399999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76005699999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.78285099999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84785599999999994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.76102300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.77189999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71406899999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.64372200000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75965699999999992</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64807599999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.68714199999999992</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.86585400000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.65300199999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.87559100000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Chromosome3D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$F$2:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.86410366198526989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89630694295600033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88545317082721209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94383963482809541</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92896921462245274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91494850042989639</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88259069193221362</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.91848345218700422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85128508884791654</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90595830822705514</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89394039024059557</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89521941607239031</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91093745679206195</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89363159358511213</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.85146502564887927</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85262266451022206</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8398317178728687</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.87827283916535659</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84817643800723153</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.92135142641702039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.88545494349652043</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93201281713888118</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3DMax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$G$2:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.94614384179977773</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9462953140518372</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95656891800005039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97405899406883278</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96910352626871121</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96062799847200275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92682063065304443</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96387285465769479</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94408738464552999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94425777322714122</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9529541320866628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95303543881914277</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95401288101928361</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94986570738734233</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94560222936238436</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94004921624095561</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.92730270667545855</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.923452895410522</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93773673961839643</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94734210606273039</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96509135321880357</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95052243460265906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97339904720926873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LorDG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$H$2:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.89268000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87235273303457428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85750753390512513</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95984785479589474</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93270105601200959</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92396114173645738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85285450364012028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92397258604724353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85618536553645486</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89772154181107422</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90102454043077196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90702764431738558</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91698133542918137</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88508878267397706</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.87205669494842086</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84358230281480107</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83780436150253879</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.86611172768050604</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.88770265139675508</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.89448909657519049</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95496250447232378</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86144078045840911</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.96800888391991113</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ParticleChromo3D </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$I$2:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.93796178123177099</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94593962644091301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95657698169655503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97302178697451203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96902121568562904</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95620128873163901</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93686817032764003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96378408486238298</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93655063505696701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94541254266360597</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95242054936726095</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95179223556287196</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95461013205323098</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94993513840186405</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94427910109011304</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93908105560612998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.92733414741314502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.92367640879312196</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93040451787945599</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93921930146045296</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96376701663500197</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95109060629803299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.97208611504371301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GEM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$J$2:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.83156399999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84358299999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85700200000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93101500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89559699999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88115299999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81488400000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89937800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86324000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.855819</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87697899999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.87285900000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87237699999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85417100000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.82137499999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.80316699999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.82351799999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.82753699999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.87077000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94541799999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89844100000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93030000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparison 500kb 15sc'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MOGEN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparison 500kb 15sc'!$K$2:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.57109560687524596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54117985207863495</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37887235382845202</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35648018072988003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65743107399945999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54168439772632804</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41635071730659601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33903148228484697</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23031485732603499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36395456380651298</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.32570165841577597</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.446384233263661</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57954508175544905</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21588912608647801</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.57052844314427498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57011729795718202</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41454036603238098</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25099682849361898</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.33891900113235002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.33082164833689298</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.47911019195395099</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.48392826733571398</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.81286126647975099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-75D3-4247-B99D-6DA1DFDE736A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1756532735"/>
-        <c:axId val="1756540223"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1756532735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Chromosome</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1756540223"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1756540223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>SCC</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1756532735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -21658,86 +18632,6 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23626,1038 +20520,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -28784,88 +24646,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E43219-DF5C-4A53-9CCE-90B2D9896CA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913E3654-B356-4488-B1E8-AB35FCFF52FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -30619,1692 +26399,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA276C-B6E5-4C94-AF86-174D3CC1BBA6}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0.74691075439370036</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.94314699999999996</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0.87192717401248487</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.74756999999999996</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0.86871057184859557</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0.95654361697866108</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0.89554484397116874</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.95656332884058404</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.86346400000000001</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.54938073595508796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0.75998856583345109</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.93279400000000001</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.86020931840125403</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.85336299999999998</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.90294011297576793</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.95634763935278677</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.89291791976640034</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.95623577659568304</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.85942600000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.68952073253407298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0.78408409791692957</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.94905399999999995</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.87835737432932348</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.84968599999999994</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.89829182804964836</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.96663264567937413</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0.8460090655027841</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.96638694920969503</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.87469200000000003</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.26792235788077701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0.7585622539253124</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.97650300000000001</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.94928810945835362</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.83055000000000001</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.94459705130790994</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.97796248604076474</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.96495898219456622</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.97778931733558805</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.95001400000000003</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.79542309559473401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.81324635575640292</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.96630199999999999</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.92808136088861681</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.83852099999999996</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.93451604381561482</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.97511149115969653</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.93782653706856478</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.97531973298260699</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.92203500000000005</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.64313827773716004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.41247052796331363</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.95656399999999997</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.89371080630055189</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.79009099999999999</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.92647261456755514</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.96546029083373008</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.92920433212732456</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.95350949918152295</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.89990099999999995</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.60296102416430797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.6842996030290025</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.93394499999999991</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.86900403544380511</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.79592299999999994</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.89331140610130544</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.94042477609969</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.84855818890220558</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.93771300726682705</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.84123999999999999</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.57485510979896104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.8806202796884649</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.96462799999999993</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.9170807562639588</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.89051999999999998</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.9351393942998284</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.96920542394103792</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.94993089026019473</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.96901211541178001</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.917462</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.36424311472329401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.74934798994558216</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.96462799999999993</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.91458712413482923</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.83960099999999993</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.84803003457680948</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.95324844493145633</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0.88416171408988409</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.95370152240455996</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.88802999999999999</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.47512126305810498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.7204430480929841</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.95020799999999994</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.88848725549521179</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.82572899999999994</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.91598507888563119</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.95268864210409843</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0.91002954399082203</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.951574294115201</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.88114700000000001</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.36903588288995898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0.57570402574288171</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.95395699999999994</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.88116703765931403</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.75334999999999996</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.9037629050878464</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.96037418551845521</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.91517086119653723</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.96020853703088904</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.88335900000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.35767440129606498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0.80863414755378926</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.94788799999999995</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.88185661127120862</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.82328599999999996</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.90504015885050282</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0.95865830473299674</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.91903838074938204</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.95864514115889898</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.88925900000000002</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.56394104887348295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.65936624897575014</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.95033799999999991</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.86789333825350645</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.87868099999999993</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.92237778636986822</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0.96237567293552506</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.93057500898318002</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.96119105970256002</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.87631400000000004</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.62587275150106503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.67179453986757509</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.94535599999999997</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.8799225709624422</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.79012499999999997</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.88946904016225503</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.95721680224916961</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.88734149200268531</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.95719553078333597</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.88539699999999999</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.62587275150106503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.73264290107247143</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.94507799999999997</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.88310553989175167</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.79780200000000001</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.88610396678299208</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0.95267646795670258</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.9075587016550386</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.95233204724190901</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.88532500000000003</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.58563531874293895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0.55090912663042324</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.94005699999999992</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.85494435124324009</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.74359799999999998</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.80174450931677332</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.94353467801468016</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0.83706700698841163</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.93823387402945901</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.84340599999999999</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.57113302052441595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.64555791491128123</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.92986799999999992</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.8297679427383875</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.63667399999999996</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.80423858297067663</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.9381546557217354</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.85955843808128063</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.93809174009212104</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.81411500000000003</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.30224429685333798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.76616051221207138</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.91619499999999998</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.84574194822014792</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.83212299999999995</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.86579411609674317</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.93370747775559038</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.8726500968811729</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.93243284960832995</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.85247499999999998</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.70076352244269502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.5146096486583055</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.92880099999999999</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.84279179985614761</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.661798</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.79889069984531491</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.9444207256890812</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.69529912774586167</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.94421108021053102</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.85168100000000002</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.50661070108650696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.64563431390338255</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.94514899999999991</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.88189842417453346</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.73544500000000002</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0.84522253677902104</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0.94468723331686255</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0.85823135049545574</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.94455414044838004</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.87754799999999999</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.57351307839104104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0.80583518741413473</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.96753</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.94920402321718078</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.885934</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.8882812698602166</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.96947616905418033</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0.9546046574615582</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.97078037045142296</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.95587699999999998</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.39429025647787402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.61117016815721059</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.94807199999999991</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.87272031183655929</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.69340099999999993</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.7917948418927252</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.95686993431285916</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0.86517928290978807</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.95679486168905303</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.95587699999999998</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.56166624614466498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0.59115238700962447</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.97664999999999991</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.95026814245440883</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.91424299999999992</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.9436356527960158</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.97890005199876817</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.97498223482192203</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.97750719344482495</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.94117099999999998</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.78559935992855301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991350A-CEE1-47ED-8B05-07C61E800DE9}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0.45467700727310606</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15">
-        <v>0.85760932929244327</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.63889499999999999</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0.86410366198526989</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0.94614384179977773</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.89268000000000003</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.93796178123177099</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.83156399999999997</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.57109560687524596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0.77378090796731636</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15">
-        <v>0.84631096766339375</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.82998699999999992</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.89630694295600033</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.9462953140518372</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.87235273303457428</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.94593962644091301</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.84358299999999997</v>
-      </c>
-      <c r="K3">
-        <v>0.54117985207863495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0.46445795014895497</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15">
-        <v>0.86152709657782833</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.82292500000000002</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0.88545317082721209</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.95656891800005039</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0.85750753390512513</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.95657698169655503</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0.85700200000000004</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0.37887235382845202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15">
-        <v>0.39292140174630541</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15">
-        <v>0.9407126734313811</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.757409</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.94383963482809541</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.97405899406883278</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.95984785479589474</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.97302178697451203</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.93101500000000004</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0.35648018072988003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.62928055481090839</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15">
-        <v>0.91793976534457522</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.80387500000000001</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.92896921462245274</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.96910352626871121</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.93270105601200959</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.96902121568562904</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0.89559699999999998</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.65743107399945999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <v>0.57016375411552389</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15">
-        <v>0.88603903006941731</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.75183099999999992</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.91494850042989639</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.96062799847200275</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.92396114173645738</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.95620128873163901</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.88115299999999996</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.54168439772632804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.50557891601534388</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15">
-        <v>0.85682598014060052</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.76013799999999998</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.88259069193221362</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.92682063065304443</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.85285450364012028</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.93686817032764003</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0.81488400000000005</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0.41635071730659601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.30894598197969225</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15">
-        <v>0.90175444447621211</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.86564999999999992</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.91848345218700422</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.96387285465769479</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.92397258604724353</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.96378408486238298</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.89937800000000001</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0.33903148228484697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0.7842833652559571</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15">
-        <v>0.89709275806418753</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.81645899999999993</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.85128508884791654</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.94408738464552999</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.85618536553645486</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.93655063505696701</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.86324000000000001</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.23031485732603499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15">
-        <v>0.61680212868293094</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15">
-        <v>0.86707099595713943</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.79399999999999993</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.90595830822705514</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.94425777322714122</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.89772154181107422</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.94541254266360597</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0.855819</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.36395456380651298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0.66723742223492322</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15">
-        <v>0.87288936178664034</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.76005699999999998</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.89394039024059557</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.9529541320866628</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.90102454043077196</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.95242054936726095</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0.87697899999999995</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.32570165841577597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0.66238339231507593</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.9420099999999999</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.87338698897581091</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.78285099999999996</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.89521941607239031</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0.95303543881914277</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.90702764431738558</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.95179223556287196</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.87285900000000005</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.446384233263661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.67145811351243523</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.94469099999999995</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.87097155923461089</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.84785599999999994</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.91093745679206195</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0.95401288101928361</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.91698133542918137</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.95461013205323098</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0.87237699999999996</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.57954508175544905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.5526629916567164</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.93741999999999992</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.85829733865514213</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.76102300000000001</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.89363159358511213</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.94986570738734233</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.88508878267397706</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.94993513840186405</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0.85417100000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.21588912608647801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15">
-        <v>0.67945829932937973</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.93521199999999993</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.84618781445893509</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.77189999999999992</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.85146502564887927</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0.94560222936238436</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.87205669494842086</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.94427910109011304</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0.84718000000000004</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.57052844314427498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0.4434105849738792</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.93058599999999991</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.83067662079358373</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.71406899999999995</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.85262266451022206</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0.94004921624095561</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.84358230281480107</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.93908105560612998</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.82137499999999997</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.57011729795718202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <v>0.61280373401656374</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.92207699999999992</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.80686648704906949</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.64372200000000002</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.8398317178728687</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0.92730270667545855</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.83780436150253879</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.92733414741314502</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0.80316699999999996</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.41454036603238098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.72484190633529988</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.90648399999999996</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.82132385414410813</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.75965699999999992</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.87827283916535659</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.923452895410522</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.86611172768050604</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.92367640879312196</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.82351799999999997</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.25099682849361898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="15">
-        <v>0.48683000567651197</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.92806899999999992</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.82811667965085967</v>
-      </c>
-      <c r="E20" s="15">
-        <v>0.64807599999999999</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.84817643800723153</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.93773673961839643</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.88770265139675508</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.93040451787945599</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.82753699999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.33891900113235002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0.4916144856437239</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.94287199999999993</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.8738780903676413</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0.68714199999999992</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15">
-        <v>0.94734210606273039</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0.89448909657519049</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.93921930146045296</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.87077000000000004</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.33082164833689298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15">
-        <v>0.71982902867849619</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.95771899999999999</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.94003935609428924</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.86585400000000001</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.92135142641702039</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.96509135321880357</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.95496250447232378</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.96376701663500197</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.94541799999999998</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.47911019195395099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.57478887519721911</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.94626899999999992</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.8921110211399228</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.65300199999999997</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.88545494349652043</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.95052243460265906</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0.86144078045840911</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.95109060629803299</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.89844100000000005</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.48392826733571398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15">
-        <v>0.9018746901117588</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15">
-        <v>0.94408231059194037</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.87559100000000001</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.93201281713888118</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.97339904720926873</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0.96800888391991113</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.97208611504371301</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.81286126647975099</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
@@ -32884,7 +26978,7 @@
       <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>45</v>
       </c>
       <c r="O1" t="s">
@@ -32953,16 +27047,16 @@
         <v>0.99837607469027201</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="M2" s="22">
+      <c r="M2" s="21">
         <v>0.3</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>0.1</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="24">
         <v>8.3145397809773702E-2</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="24">
         <v>6.6322647822716504E-2</v>
       </c>
       <c r="S2">
@@ -33500,16 +27594,16 @@
       <c r="H12" s="1">
         <v>2.8</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -33535,16 +27629,16 @@
       <c r="H13" s="1">
         <v>2.8</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <v>0.5</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>0.1</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="21">
         <v>0.12843318810130699</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="21">
         <v>0.10500272679921201</v>
       </c>
     </row>
@@ -33570,7 +27664,7 @@
       <c r="H14" s="1">
         <v>2.8</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <v>0.5</v>
       </c>
       <c r="N14">
@@ -33605,7 +27699,7 @@
       <c r="H15" s="1">
         <v>2.8</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <v>0.5</v>
       </c>
       <c r="N15">
@@ -33634,7 +27728,7 @@
       <c r="E16" s="1">
         <v>26.636332184034099</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <v>0.5</v>
       </c>
       <c r="N16">
@@ -33663,7 +27757,7 @@
       <c r="E17" s="1">
         <v>25.458332387009602</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="20">
         <v>0.5</v>
       </c>
       <c r="N17">
@@ -33692,7 +27786,7 @@
       <c r="E18" s="1">
         <v>26.038569260682301</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="20">
         <v>0.5</v>
       </c>
       <c r="N18">
@@ -33706,7 +27800,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="M19" s="21">
+      <c r="M19" s="20">
         <v>0.5</v>
       </c>
       <c r="N19">
@@ -33720,16 +27814,16 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="M20" s="21">
+      <c r="M20" s="20">
         <v>0.5</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>0.99689891449684798</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <v>0.99672801553520796</v>
       </c>
     </row>
@@ -33762,30 +27856,30 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>0.7</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="21">
         <v>0.1</v>
       </c>
       <c r="O24">
         <v>0.21888586687327299</v>
       </c>
-      <c r="P24" s="22">
+      <c r="P24" s="21">
         <v>0.172423876309065</v>
       </c>
     </row>
@@ -33824,7 +27918,7 @@
       <c r="N27">
         <v>1</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="25">
         <v>9.3884768551112899E-2</v>
       </c>
       <c r="P27">
@@ -33852,10 +27946,10 @@
       <c r="N29">
         <v>1.6</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <v>0.302905126442233</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="25">
         <v>0.24047990742434799</v>
       </c>
     </row>
@@ -33866,7 +27960,7 @@
       <c r="N30">
         <v>1.9</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="25">
         <v>0.99641615358045099</v>
       </c>
       <c r="P30">
@@ -33916,30 +28010,30 @@
       </c>
     </row>
     <row r="34" spans="13:22">
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="O34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P34" s="24" t="s">
+      <c r="P34" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="13:22">
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <v>0.9</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <v>0.1</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="21">
         <v>6.3878184201954805E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="21">
         <v>4.8576275351925498E-2</v>
       </c>
       <c r="T35" s="4"/>
@@ -33947,7 +28041,7 @@
       <c r="V35" s="4"/>
     </row>
     <row r="36" spans="13:22">
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <v>0.9</v>
       </c>
       <c r="N36">
@@ -33963,7 +28057,7 @@
       <c r="V36" s="4"/>
     </row>
     <row r="37" spans="13:22">
-      <c r="M37" s="23">
+      <c r="M37" s="22">
         <v>0.9</v>
       </c>
       <c r="N37">
@@ -33979,7 +28073,7 @@
       <c r="V37" s="4"/>
     </row>
     <row r="38" spans="13:22">
-      <c r="M38" s="23">
+      <c r="M38" s="22">
         <v>0.9</v>
       </c>
       <c r="N38">
@@ -33993,7 +28087,7 @@
       </c>
     </row>
     <row r="39" spans="13:22">
-      <c r="M39" s="23">
+      <c r="M39" s="22">
         <v>0.9</v>
       </c>
       <c r="N39">
@@ -34007,7 +28101,7 @@
       </c>
     </row>
     <row r="40" spans="13:22">
-      <c r="M40" s="23">
+      <c r="M40" s="22">
         <v>0.9</v>
       </c>
       <c r="N40">
@@ -34021,7 +28115,7 @@
       </c>
     </row>
     <row r="41" spans="13:22">
-      <c r="M41" s="23">
+      <c r="M41" s="22">
         <v>0.9</v>
       </c>
       <c r="N41">
@@ -34088,7 +28182,7 @@
       <c r="B76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>0.94454510148248105</v>
       </c>
     </row>
@@ -34099,7 +28193,7 @@
       <c r="B77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="18">
         <v>0.94448065223720201</v>
       </c>
     </row>
@@ -34110,7 +28204,7 @@
       <c r="B78">
         <v>2.5</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="18">
         <v>0.94411056191776699</v>
       </c>
     </row>
@@ -34121,7 +28215,7 @@
       <c r="B79">
         <v>1.9</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="18">
         <v>0.944509436272298</v>
       </c>
     </row>
@@ -60964,10 +55058,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="K1" sqref="K1:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -60975,7 +55069,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -61000,819 +55094,974 @@
       <c r="H1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="13">
+      <c r="L1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.74691075439370036</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.94314699999999996</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0.87192717401248487</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0.74756999999999996</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0.86871057184859557</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>0.95654361697866108</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>0.89554484397116874</v>
       </c>
       <c r="I2" s="4">
+        <v>0.86346400000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.54938073595508796</v>
+      </c>
+      <c r="K2" s="27">
         <v>0.955638497906099</v>
       </c>
-      <c r="J2" s="4">
-        <v>0.86346400000000001</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.54938073595508796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="13">
+      <c r="L2" s="4">
+        <v>0.95652983403353797</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.95656332884058404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.75998856583345109</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.93279400000000001</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.86020931840125403</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0.85336299999999998</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.90294011297576793</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>0.95634763935278677</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>0.89291791976640034</v>
       </c>
       <c r="I3" s="4">
+        <v>0.85942600000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.68952073253407298</v>
+      </c>
+      <c r="K3" s="27">
         <v>0.95549627213759103</v>
       </c>
-      <c r="J3" s="4">
-        <v>0.85942600000000002</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.68952073253407298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="13">
+      <c r="L3" s="4">
+        <v>0.95587564490067001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.95623577659568304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0.78408409791692957</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.94905399999999995</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.87835737432932348</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0.84968599999999994</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0.89829182804964836</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.96663264567937413</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0.8460090655027841</v>
       </c>
       <c r="I4" s="4">
+        <v>0.87469200000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.26792235788077701</v>
+      </c>
+      <c r="K4" s="27">
         <v>0.96623049423298202</v>
       </c>
-      <c r="J4" s="4">
-        <v>0.87469200000000003</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.26792235788077701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="13">
+      <c r="L4" s="4">
+        <v>0.96637353261112702</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.96638694920969503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>0.7585622539253124</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.97650300000000001</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0.94928810945835362</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0.83055000000000001</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0.94459705130790994</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.97796248604076474</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.96495898219456622</v>
       </c>
       <c r="I5" s="4">
+        <v>0.95001400000000003</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.79542309559473401</v>
+      </c>
+      <c r="K5" s="27">
         <v>0.97307541352750204</v>
       </c>
-      <c r="J5" s="4">
-        <v>0.95001400000000003</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.79542309559473401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="13">
+      <c r="L5" s="4">
+        <v>0.97805436773919996</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.97778931733558805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>0.81324635575640292</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.96630199999999999</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0.92808136088861681</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.83852099999999996</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0.93451604381561482</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.97511149115969653</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>0.93782653706856478</v>
       </c>
       <c r="I6" s="4">
+        <v>0.92203500000000005</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.64313827773716004</v>
+      </c>
+      <c r="K6" s="27">
         <v>0.97493128392454298</v>
       </c>
-      <c r="J6" s="4">
-        <v>0.92203500000000005</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.64313827773716004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="13">
+      <c r="L6" s="4">
+        <v>0.97541899498033602</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.97531973298260699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.41247052796331363</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.95656399999999997</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.89371080630055189</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.79009099999999999</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0.92647261456755514</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>0.96546029083373008</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>0.92920433212732456</v>
       </c>
       <c r="I7" s="4">
+        <v>0.89990099999999995</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.60296102416430797</v>
+      </c>
+      <c r="K7" s="27">
         <v>0.96173649387161098</v>
       </c>
-      <c r="J7" s="4">
-        <v>0.89990099999999995</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.60296102416430797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="13">
+      <c r="L7" s="4">
+        <v>0.95925219022036601</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.95350949918152295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0.6842996030290025</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0.93394499999999991</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.86900403544380511</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0.79592299999999994</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0.89331140610130544</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.94042477609969</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>0.84855818890220558</v>
       </c>
       <c r="I8" s="4">
+        <v>0.84123999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.57485510979896104</v>
+      </c>
+      <c r="K8" s="27">
         <v>0.93736402081701198</v>
       </c>
-      <c r="J8" s="4">
-        <v>0.84123999999999999</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.57485510979896104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="13">
+      <c r="L8" s="4">
+        <v>0.94022118569415103</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.93771300726682705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>0.8806202796884649</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0.96462799999999993</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0.9170807562639588</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.89051999999999998</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0.9351393942998284</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>0.96920542394103792</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>0.94993089026019473</v>
       </c>
       <c r="I9" s="4">
+        <v>0.917462</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.36424311472329401</v>
+      </c>
+      <c r="K9" s="27">
         <v>0.96815754724791803</v>
       </c>
-      <c r="J9" s="4">
-        <v>0.917462</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.36424311472329401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="13">
+      <c r="L9" s="4">
+        <v>0.968716291403942</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.96901211541178001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>0.74934798994558216</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0.96462799999999993</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0.91458712413482923</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0.83960099999999993</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0.84803003457680948</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>0.95324844493145633</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>0.88416171408988409</v>
       </c>
       <c r="I10" s="4">
+        <v>0.88802999999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.47512126305810498</v>
+      </c>
+      <c r="K10" s="27">
         <v>0.95392216655409301</v>
       </c>
-      <c r="J10" s="4">
-        <v>0.88802999999999999</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.47512126305810498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="13">
+      <c r="L10" s="4">
+        <v>0.95058042977258395</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.95370152240455996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>0.7204430480929841</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.95020799999999994</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.88848725549521179</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.82572899999999994</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0.91598507888563119</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0.95268864210409843</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>0.91002954399082203</v>
       </c>
       <c r="I11" s="4">
+        <v>0.88114700000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.36903588288995898</v>
+      </c>
+      <c r="K11" s="27">
         <v>0.95012186292738998</v>
       </c>
-      <c r="J11" s="4">
-        <v>0.88114700000000001</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.36903588288995898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="13">
+      <c r="L11" s="4">
+        <v>0.95309197156890801</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.951574294115201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>0.57570402574288171</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.95395699999999994</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>0.88116703765931403</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>0.75334999999999996</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>0.9037629050878464</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0.96037418551845521</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>0.91517086119653723</v>
       </c>
       <c r="I12" s="4">
+        <v>0.88335900000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.35767440129606498</v>
+      </c>
+      <c r="K12" s="27">
         <v>0.96034154243542103</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.88335900000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.35767440129606498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="13">
+      <c r="L12" s="4">
+        <v>0.96007972107358797</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.96020853703088904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>0.80863414755378926</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0.94788799999999995</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>0.88185661127120862</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>0.82328599999999996</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>0.90504015885050282</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.95865830473299674</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>0.91903838074938204</v>
       </c>
       <c r="I13" s="4">
+        <v>0.88925900000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.56394104887348295</v>
+      </c>
+      <c r="K13" s="27">
         <v>0.95564028342075202</v>
       </c>
-      <c r="J13" s="4">
-        <v>0.88925900000000002</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.56394104887348295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="13">
+      <c r="L13" s="4">
+        <v>0.95865924092375598</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.95864514115889898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0.65936624897575014</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.95033799999999991</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.86789333825350645</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>0.87868099999999993</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0.92237778636986822</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>0.96237567293552506</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>0.93057500898318002</v>
       </c>
       <c r="I14" s="4">
+        <v>0.87631400000000004</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.62587275150106503</v>
+      </c>
+      <c r="K14" s="27">
         <v>0.96069761418104804</v>
       </c>
-      <c r="J14" s="4">
-        <v>0.87631400000000004</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
+        <v>0.96245135640065205</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.96119105970256002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.67179453986757509</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.94535599999999997</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.8799225709624422</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.79012499999999997</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.88946904016225503</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.95721680224916961</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.88734149200268531</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.88539699999999999</v>
+      </c>
+      <c r="J15" s="4">
         <v>0.62587275150106503</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.67179453986757509</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.94535599999999997</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.8799225709624422</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.79012499999999997</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.88946904016225503</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.95721680224916961</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.88734149200268531</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="K15" s="27">
         <v>0.95708135847610698</v>
       </c>
-      <c r="J15" s="4">
-        <v>0.88539699999999999</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.62587275150106503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="13">
+      <c r="L15" s="4">
+        <v>0.95631495060694005</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.95719553078333597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>0.73264290107247143</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.94507799999999997</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.88310553989175167</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>0.79780200000000001</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>0.88610396678299208</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>0.95267646795670258</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>0.9075587016550386</v>
       </c>
       <c r="I16" s="4">
+        <v>0.88532500000000003</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.58563531874293895</v>
+      </c>
+      <c r="K16" s="27">
         <v>0.95091619375605796</v>
       </c>
-      <c r="J16" s="4">
-        <v>0.88532500000000003</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.58563531874293895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="13">
+      <c r="L16" s="4">
+        <v>0.95235469942143902</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.95233204724190901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>0.55090912663042324</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>0.94005699999999992</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.85494435124324009</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>0.74359799999999998</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.80174450931677332</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.94353467801468016</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>0.83706700698841163</v>
       </c>
       <c r="I17" s="4">
+        <v>0.84340599999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.57113302052441595</v>
+      </c>
+      <c r="K17" s="27">
         <v>0.94279002874494999</v>
       </c>
-      <c r="J17" s="4">
-        <v>0.84340599999999999</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.57113302052441595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="13">
+      <c r="L17" s="4">
+        <v>0.94403201715547103</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.93823387402945901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>0.64555791491128123</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.92986799999999992</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>0.8297679427383875</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>0.63667399999999996</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.80423858297067663</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>0.9381546557217354</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>0.85955843808128063</v>
       </c>
       <c r="I18" s="4">
+        <v>0.81411500000000003</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.30224429685333798</v>
+      </c>
+      <c r="K18" s="27">
         <v>0.93768955850535496</v>
       </c>
-      <c r="J18" s="4">
-        <v>0.81411500000000003</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.30224429685333798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="13">
+      <c r="L18" s="4">
+        <v>0.93827511429589405</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.93809174009212104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>0.76616051221207138</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.91619499999999998</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.84574194822014792</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>0.83212299999999995</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.86579411609674317</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.93370747775559038</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>0.8726500968811729</v>
       </c>
       <c r="I19" s="4">
+        <v>0.85247499999999998</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.70076352244269502</v>
+      </c>
+      <c r="K19" s="27">
         <v>0.93183675931234899</v>
       </c>
-      <c r="J19" s="4">
-        <v>0.85247499999999998</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.70076352244269502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="13">
+      <c r="L19" s="4">
+        <v>0.93202737348602505</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.93243284960832995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0.5146096486583055</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>0.92880099999999999</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0.84279179985614761</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.661798</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0.79889069984531491</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.9444207256890812</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>0.69529912774586167</v>
       </c>
       <c r="I20" s="4">
+        <v>0.85168100000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.50661070108650696</v>
+      </c>
+      <c r="K20" s="27">
         <v>0.93834958102756605</v>
       </c>
-      <c r="J20" s="4">
-        <v>0.85168100000000002</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.50661070108650696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="13">
+      <c r="L20" s="4">
+        <v>0.94452584747635704</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.94421108021053102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>0.64563431390338255</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>0.94514899999999991</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0.88189842417453346</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>0.73544500000000002</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>0.84522253677902104</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>0.94468723331686255</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>0.85823135049545574</v>
       </c>
       <c r="I21" s="4">
+        <v>0.87754799999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.57351307839104104</v>
+      </c>
+      <c r="K21" s="27">
         <v>0.94741375608158596</v>
       </c>
-      <c r="J21" s="4">
-        <v>0.87754799999999999</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.57351307839104104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="13">
+      <c r="L21" s="4">
+        <v>0.94540954661394705</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.94455414044838004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>0.80583518741413473</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>0.96753</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0.94920402321718078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0.885934</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>0.8882812698602166</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>0.96947616905418033</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>0.9546046574615582</v>
       </c>
       <c r="I22" s="4">
+        <v>0.95587699999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.39429025647787402</v>
+      </c>
+      <c r="K22" s="27">
         <v>0.96444344141712501</v>
       </c>
-      <c r="J22" s="4">
+      <c r="L22" s="4">
+        <v>0.96991152912205503</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.97078037045142296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.61117016815721059</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.94807199999999991</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.87272031183655929</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.69340099999999993</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.7917948418927252</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.95686993431285916</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.86517928290978807</v>
+      </c>
+      <c r="I23" s="4">
         <v>0.95587699999999998</v>
       </c>
-      <c r="K22" s="4">
-        <v>0.39429025647787402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15">
-        <v>0.61117016815721059</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.94807199999999991</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.87272031183655929</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.69340099999999993</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0.7917948418927252</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0.95686993431285916</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0.86517928290978807</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="J23" s="4">
+        <v>0.56166624614466498</v>
+      </c>
+      <c r="K23" s="28">
         <v>0.95683095099520898</v>
       </c>
-      <c r="J23" s="4">
-        <v>0.95587699999999998</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.56166624614466498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="13">
+      <c r="L23" s="4">
+        <v>0.95673680393844696</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.95679486168905303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>0.59115238700962447</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>0.97664999999999991</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>0.95026814245440883</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>0.91424299999999992</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>0.9436356527960158</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>0.97890005199876817</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>0.97498223482192203</v>
       </c>
       <c r="I24" s="4">
+        <v>0.94117099999999998</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.78559935992855301</v>
+      </c>
+      <c r="K24" s="27">
         <v>0.97058941282361699</v>
       </c>
-      <c r="J24" s="4">
-        <v>0.94117099999999998</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.78559935992855301</v>
+      <c r="L24" s="4">
+        <v>0.97799640274278099</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.97750719344482495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="K25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -61824,10 +56073,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -61835,7 +56084,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -61860,793 +56109,948 @@
       <c r="H1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="13">
+      <c r="L1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>0.45467700727310606</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14">
         <v>0.85760932929244327</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>0.63889499999999999</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0.86410366198526989</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>0.94614384179977773</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>0.89268000000000003</v>
       </c>
       <c r="I2" s="4">
+        <v>0.83156399999999997</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.57109560687524596</v>
+      </c>
+      <c r="K2" s="27">
         <v>0.93739613403765498</v>
       </c>
-      <c r="J2" s="4">
-        <v>0.83156399999999997</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.57109560687524596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="13">
+      <c r="L2" s="4">
+        <v>0.93093386064428996</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.93796178123177099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.77378090796731636</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14">
         <v>0.84631096766339375</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0.82998699999999992</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.89630694295600033</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>0.9462953140518372</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>0.87235273303457428</v>
       </c>
       <c r="I3" s="4">
+        <v>0.84358299999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.54117985207863495</v>
+      </c>
+      <c r="K3" s="27">
         <v>0.94148111774235999</v>
       </c>
-      <c r="J3" s="4">
-        <v>0.84358299999999997</v>
-      </c>
-      <c r="K3">
-        <v>0.54117985207863495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="13">
+      <c r="L3" s="4">
+        <v>0.94532937482201096</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.94593962644091301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0.46445795014895497</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15">
+      <c r="C4" s="15"/>
+      <c r="D4" s="14">
         <v>0.86152709657782833</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>0.82292500000000002</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0.88545317082721209</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.95656891800005039</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>0.85750753390512513</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="14">
+        <v>0.85700200000000004</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.37887235382845202</v>
+      </c>
+      <c r="K4" s="27">
         <v>0.95400371638671799</v>
       </c>
-      <c r="J4" s="15">
-        <v>0.85700200000000004</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0.37887235382845202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="13">
+      <c r="L4" s="4">
+        <v>0.95602909785988399</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.95657698169655503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>0.39292140174630541</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15">
+      <c r="C5" s="15"/>
+      <c r="D5" s="14">
         <v>0.9407126734313811</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0.757409</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0.94383963482809541</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.97405899406883278</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>0.95984785479589474</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="14">
+        <v>0.93101500000000004</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.35648018072988003</v>
+      </c>
+      <c r="K5" s="27">
         <v>0.96168808071656897</v>
       </c>
-      <c r="J5" s="15">
-        <v>0.93101500000000004</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0.35648018072988003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="13">
+      <c r="L5" s="4">
+        <v>0.96532257169989799</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.97302178697451203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>0.62928055481090839</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14">
         <v>0.91793976534457522</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.80387500000000001</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0.92896921462245274</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.96910352626871121</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>0.93270105601200959</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="14">
+        <v>0.89559699999999998</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.65743107399945999</v>
+      </c>
+      <c r="K6" s="27">
         <v>0.96562181420862103</v>
       </c>
-      <c r="J6" s="15">
-        <v>0.89559699999999998</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.65743107399945999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="13">
+      <c r="L6" s="4">
+        <v>0.96563218011735297</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.96902121568562904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.57016375411552389</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14">
         <v>0.88603903006941731</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0.75183099999999992</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0.91494850042989639</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>0.96062799847200275</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>0.92396114173645738</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="14">
+        <v>0.88115299999999996</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.54168439772632804</v>
+      </c>
+      <c r="K7" s="27">
         <v>0.95040230485161503</v>
       </c>
-      <c r="J7" s="15">
-        <v>0.88115299999999996</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.54168439772632804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="13">
+      <c r="L7" s="4">
+        <v>0.95496596340408102</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.95620128873163901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0.50557891601534388</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14">
         <v>0.85682598014060052</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0.76013799999999998</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0.88259069193221362</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.92682063065304443</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>0.85285450364012028</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="14">
+        <v>0.81488400000000005</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.41635071730659601</v>
+      </c>
+      <c r="K8" s="27">
         <v>0.93534418247143103</v>
       </c>
-      <c r="J8" s="15">
-        <v>0.81488400000000005</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0.41635071730659601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="13">
+      <c r="L8" s="4">
+        <v>0.93665246375795597</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.93686817032764003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>0.30894598197969225</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15">
+      <c r="C9" s="15"/>
+      <c r="D9" s="14">
         <v>0.90175444447621211</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.86564999999999992</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0.91848345218700422</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>0.96387285465769479</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>0.92397258604724353</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="14">
+        <v>0.89937800000000001</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.33903148228484697</v>
+      </c>
+      <c r="K9" s="27">
         <v>0.955116906482678</v>
       </c>
-      <c r="J9" s="15">
-        <v>0.89937800000000001</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0.33903148228484697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="13">
+      <c r="L9" s="4">
+        <v>0.96397667816916999</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.96378408486238298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>0.7842833652559571</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14">
         <v>0.89709275806418753</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0.81645899999999993</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0.85128508884791654</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>0.94408738464552999</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>0.85618536553645486</v>
       </c>
       <c r="I10" s="4">
+        <v>0.86324000000000001</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.23031485732603499</v>
+      </c>
+      <c r="K10" s="27">
         <v>0.93838522199517405</v>
       </c>
-      <c r="J10" s="4">
-        <v>0.86324000000000001</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.23031485732603499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="13">
+      <c r="L10" s="4">
+        <v>0.92578652747953905</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.93655063505696701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>0.61680212868293094</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15">
+      <c r="C11" s="15"/>
+      <c r="D11" s="14">
         <v>0.86707099595713943</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.79399999999999993</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0.90595830822705514</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0.94425777322714122</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>0.89772154181107422</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="14">
+        <v>0.855819</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.36395456380651298</v>
+      </c>
+      <c r="K11" s="27">
         <v>0.94324393676985496</v>
       </c>
-      <c r="J11" s="15">
-        <v>0.855819</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.36395456380651298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="13">
+      <c r="L11" s="4">
+        <v>0.94092322517946403</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.94541254266360597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>0.66723742223492322</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15">
+      <c r="C12" s="15"/>
+      <c r="D12" s="14">
         <v>0.87288936178664034</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>0.76005699999999998</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>0.89394039024059557</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0.9529541320866628</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>0.90102454043077196</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="14">
+        <v>0.87697899999999995</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.32570165841577597</v>
+      </c>
+      <c r="K12" s="27">
         <v>0.94393097818258398</v>
       </c>
-      <c r="J12" s="15">
-        <v>0.87697899999999995</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.32570165841577597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="13">
+      <c r="L12" s="4">
+        <v>0.95115328237839702</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.95242054936726095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>0.66238339231507593</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0.9420099999999999</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>0.87338698897581091</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>0.78285099999999996</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>0.89521941607239031</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0.95303543881914277</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>0.90702764431738558</v>
       </c>
       <c r="I13" s="4">
+        <v>0.87285900000000005</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.446384233263661</v>
+      </c>
+      <c r="K13" s="27">
         <v>0.95048253500304503</v>
       </c>
-      <c r="J13" s="4">
-        <v>0.87285900000000005</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.446384233263661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="13">
+      <c r="L13" s="4">
+        <v>0.95134267264420702</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.95179223556287196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0.67145811351243523</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.94469099999999995</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.87097155923461089</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>0.84785599999999994</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0.91093745679206195</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>0.95401288101928361</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>0.91698133542918137</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="14">
+        <v>0.87237699999999996</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.57954508175544905</v>
+      </c>
+      <c r="K14" s="27">
         <v>0.95061475504803195</v>
       </c>
-      <c r="J14" s="15">
-        <v>0.87237699999999996</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.57954508175544905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="13">
+      <c r="L14" s="4">
+        <v>0.95227879014290495</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.95461013205323098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>0.5526629916567164</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>0.93741999999999992</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0.85829733865514213</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>0.76102300000000001</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>0.89363159358511213</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>0.94986570738734233</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>0.88508878267397706</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="14">
+        <v>0.85417100000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.21588912608647801</v>
+      </c>
+      <c r="K15" s="27">
         <v>0.94988576164146299</v>
       </c>
-      <c r="J15" s="15">
-        <v>0.85417100000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.21588912608647801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="13">
+      <c r="L15" s="4">
+        <v>0.95000455745389101</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.94993513840186405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>0.67945829932937973</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.93521199999999993</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.84618781445893509</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>0.77189999999999992</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>0.85146502564887927</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>0.94560222936238436</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>0.87205669494842086</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="14">
+        <v>0.84718000000000004</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.57052844314427498</v>
+      </c>
+      <c r="K16" s="27">
         <v>0.94185723591812998</v>
       </c>
-      <c r="J16" s="15">
-        <v>0.84718000000000004</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.57052844314427498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="13">
+      <c r="L16" s="4">
+        <v>0.94719333967020702</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.94427910109011304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>0.4434105849738792</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>0.93058599999999991</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.83067662079358373</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>0.71406899999999995</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.85262266451022206</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.94004921624095561</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>0.84358230281480107</v>
       </c>
       <c r="I17" s="4">
+        <v>0.82137499999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.57011729795718202</v>
+      </c>
+      <c r="K17" s="27">
         <v>0.93390080498693995</v>
       </c>
-      <c r="J17" s="4">
-        <v>0.82137499999999997</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.57011729795718202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="13">
+      <c r="L17" s="4">
+        <v>0.939440318546784</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.93908105560612998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>0.61280373401656374</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.92207699999999992</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>0.80686648704906949</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>0.64372200000000002</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.8398317178728687</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>0.92730270667545855</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.83780436150253879</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="14">
+        <v>0.80316699999999996</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.41454036603238098</v>
+      </c>
+      <c r="K18" s="27">
         <v>0.92729834453969395</v>
       </c>
-      <c r="J18" s="15">
-        <v>0.80316699999999996</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.41454036603238098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="13">
+      <c r="L18" s="4">
+        <v>0.92713085293546904</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.92733414741314502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>0.72484190633529988</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.90648399999999996</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.82132385414410813</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>0.75965699999999992</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.87827283916535659</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0.923452895410522</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>0.86611172768050604</v>
       </c>
       <c r="I19" s="4">
+        <v>0.82351799999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.25099682849361898</v>
+      </c>
+      <c r="K19" s="27">
         <v>0.91649637478964696</v>
       </c>
-      <c r="J19" s="4">
-        <v>0.82351799999999997</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.25099682849361898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="13">
+      <c r="L19" s="4">
+        <v>0.92204360065319801</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.92367640879312196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0.48683000567651197</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>0.92806899999999992</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0.82811667965085967</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.64807599999999999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0.84817643800723153</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.93773673961839643</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>0.88770265139675508</v>
       </c>
       <c r="I20" s="4">
+        <v>0.82753699999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.33891900113235002</v>
+      </c>
+      <c r="K20" s="27">
         <v>0.93753817212068302</v>
       </c>
-      <c r="J20" s="4">
-        <v>0.82753699999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.33891900113235002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="13">
+      <c r="L20" s="4">
+        <v>0.93767375047874701</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.93040451787945599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>0.4916144856437239</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>0.94287199999999993</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>0.8738780903676413</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0.68714199999999992</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15">
+      <c r="F21" s="15"/>
+      <c r="G21" s="14">
         <v>0.94734210606273039</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>0.89448909657519049</v>
       </c>
       <c r="I21" s="4">
+        <v>0.87077000000000004</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.33082164833689298</v>
+      </c>
+      <c r="K21" s="27">
         <v>0.94172745689457804</v>
       </c>
-      <c r="J21" s="4">
-        <v>0.87077000000000004</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.33082164833689298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="13">
+      <c r="L21" s="4">
+        <v>0.94631403175117401</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.93921930146045296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>0.71982902867849619</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>0.95771899999999999</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>0.94003935609428924</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0.86585400000000001</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>0.92135142641702039</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0.96509135321880357</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>0.95496250447232378</v>
       </c>
       <c r="I22" s="4">
+        <v>0.94541799999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.47911019195395099</v>
+      </c>
+      <c r="K22" s="27">
         <v>0.96488180979883198</v>
       </c>
-      <c r="J22" s="4">
-        <v>0.94541799999999998</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.47911019195395099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="13">
+      <c r="L22" s="4">
+        <v>0.96664519241328195</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.96376701663500197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>0.57478887519721911</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>0.94626899999999992</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.8921110211399228</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>0.65300199999999997</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>0.88545494349652043</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0.95052243460265906</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>0.86144078045840911</v>
       </c>
       <c r="I23" s="4">
+        <v>0.89844100000000005</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.48392826733571398</v>
+      </c>
+      <c r="K23" s="27">
         <v>0.95045806903514196</v>
       </c>
-      <c r="J23" s="4">
-        <v>0.89844100000000005</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.48392826733571398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="13">
+      <c r="L23" s="4">
+        <v>0.95093257281199095</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.95109060629803299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>0.9018746901117588</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15">
+      <c r="C24" s="15"/>
+      <c r="D24" s="14">
         <v>0.94408231059194037</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>0.87559100000000001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>0.93201281713888118</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>0.97339904720926873</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>0.96800888391991113</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="14">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.81286126647975099</v>
+      </c>
+      <c r="K24" s="27">
         <v>0.93739613403765498</v>
       </c>
-      <c r="J24" s="15">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.81286126647975099</v>
+      <c r="L24" s="4">
+        <v>0.971543019611803</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.97208611504371301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="K25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
